--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Documents\localizacao_produtos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9637D373-0A9C-4610-9482-4883A8A7862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D510E65-6190-4A23-BD37-4FEF8DE43E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -188,7 +188,7 @@
     <t>DIAS SEM MOVIMENTAÇÃO</t>
   </si>
   <si>
-    <t>PRODUTOS SEM VENDA LISBOA 21/04/2025</t>
+    <t>PRODUTOS SEM VENDA LISBOA 30/04/2025</t>
   </si>
 </sst>
 </file>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,6 +1476,136 @@
         <v>34</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>35881</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7896013109310</v>
+      </c>
+      <c r="F30" s="4">
+        <v>49</v>
+      </c>
+      <c r="G30" s="3">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>35881</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7896013109310</v>
+      </c>
+      <c r="F31" s="4">
+        <v>49</v>
+      </c>
+      <c r="G31" s="3">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>35881</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7896013109310</v>
+      </c>
+      <c r="F32" s="4">
+        <v>49</v>
+      </c>
+      <c r="G32" s="3">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>35881</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7896013109310</v>
+      </c>
+      <c r="F33" s="4">
+        <v>49</v>
+      </c>
+      <c r="G33" s="3">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>35881</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7896013109310</v>
+      </c>
+      <c r="F34" s="4">
+        <v>49</v>
+      </c>
+      <c r="G34" s="3">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D510E65-6190-4A23-BD37-4FEF8DE43E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DF121-7CD5-4D83-80EF-870CEBC4291B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DF121-7CD5-4D83-80EF-870CEBC4291B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92192F-C517-4736-803C-4C203FE3CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>PRODUTOS SEM VENDA LISBOA 30/04/2025</t>
+  </si>
+  <si>
+    <t>PRODUTOS SEM VENDA MPE 1 30/04/2025</t>
+  </si>
+  <si>
+    <t>PRODUTOS SEM VENDA PAN  30/04/2025</t>
+  </si>
+  <si>
+    <t>PRODUTOS SEM VENDA JOQUEI 30/04/2025</t>
+  </si>
+  <si>
+    <t>PRODUTOS SEM VENDA MPE 2 30/04/2025</t>
+  </si>
+  <si>
+    <t>PRODUTOS SEM VENDA MARACANAU 30/04/2025</t>
   </si>
 </sst>
 </file>
@@ -613,13 +628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1478,7 +1493,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -1504,7 +1519,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1530,7 +1545,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -1556,7 +1571,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -1582,7 +1597,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92192F-C517-4736-803C-4C203FE3CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587CDE1-64D8-4C9B-AD32-7C7B437D8404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="235">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -65,145 +65,682 @@
     <t>CEREAIS</t>
   </si>
   <si>
-    <t>ARROZ INTEGRAL PARCERIA 1KG</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>FARINHA AMARELA BAIANINHA TIO MARCIO 1KG</t>
-  </si>
-  <si>
-    <t>FEIJAO CORDA TIO MARCIO 1KG</t>
-  </si>
-  <si>
-    <t>PIPOCA MIC.VITAMILHO MANT.DE CINEMA 100G</t>
-  </si>
-  <si>
-    <t>PIPOCA MIC.YOKI BACON 100G</t>
-  </si>
-  <si>
-    <t>LATICINIOS</t>
-  </si>
-  <si>
-    <t>BEB.LACT.NATURAL DA VACA MORANGO 540G</t>
-  </si>
-  <si>
-    <t>BEB.LACTEA ISIS SALADA FRUTAS SC 120G</t>
-  </si>
-  <si>
-    <t>GORDURA VEGETAL PRIMOR 500G</t>
-  </si>
-  <si>
-    <t>IOG.BETANIA DESN.MEL GARR.170G</t>
-  </si>
-  <si>
-    <t>IOG.ISIS AMEIXA ZERO LAC.GARR.480G</t>
-  </si>
-  <si>
-    <t>IOG.ISIS VIVA LEVE MORANGO GARR.900G</t>
-  </si>
-  <si>
-    <t>MANTEIGA PINHEIRO C/SAL PT 200G</t>
-  </si>
-  <si>
-    <t>MARGARINA CLAYBOM 250G</t>
-  </si>
-  <si>
-    <t>MARGARINA DELICIA 1KG</t>
-  </si>
-  <si>
-    <t>MARGARINA DELICIA CREMOSA C/SAL 500G</t>
-  </si>
-  <si>
-    <t>REQUEIJAO QUALY LIGHT CP 200G</t>
-  </si>
-  <si>
-    <t>SOBREM.LACTEA DANETTE CHOCOLATE 90G</t>
-  </si>
-  <si>
-    <t>LIGHT/DIET</t>
-  </si>
-  <si>
-    <t>BARRA CER.RITTER LIGHT CAPUCCINO 25G</t>
-  </si>
-  <si>
-    <t>BARRA CER.RITTER LIGHT SOB.LIMAO 25G</t>
-  </si>
-  <si>
-    <t>BARRA MAX TOP WHEY</t>
-  </si>
-  <si>
-    <t>BARRA PROTEIN CRISP MAX 44G</t>
-  </si>
-  <si>
-    <t>CHA OETKER MATE  C10</t>
-  </si>
-  <si>
-    <t>LIMPEZA</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRILUX BRANCA LV2LPG1,6L</t>
-  </si>
-  <si>
-    <t>ALVEJANTE PERF.BRILUX MULTI LV1L PG900ML</t>
-  </si>
-  <si>
-    <t>AMACIANTE SONHO AZUL PROF.REF.SCH 900ML</t>
-  </si>
-  <si>
-    <t>LISBOA</t>
-  </si>
-  <si>
-    <t>JOQUEI</t>
-  </si>
-  <si>
     <t>MARACANAU</t>
   </si>
   <si>
-    <t>MPE 1</t>
-  </si>
-  <si>
-    <t>MPE 2</t>
-  </si>
-  <si>
     <t>PESQUISA</t>
   </si>
   <si>
-    <t>PRODUTOS SEM VENDA PAN 07/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA LISBOA 09/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA JOQUEI 11/04/2027</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA MARACANAU 07/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA MPE 1 12/04/2025</t>
-  </si>
-  <si>
     <t>DIAS SEM MOVIMENTAÇÃO</t>
   </si>
   <si>
-    <t>PRODUTOS SEM VENDA LISBOA 30/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA MPE 1 30/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN  30/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA JOQUEI 30/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA MPE 2 30/04/2025</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA MARACANAU 30/04/2025</t>
+    <t>PRODUTOS SEM VENDA MARACANAU 14/05</t>
+  </si>
+  <si>
+    <t>AGUARDENTE SAPUPARA OURO 960ML</t>
+  </si>
+  <si>
+    <t>BEBIDAS</t>
+  </si>
+  <si>
+    <t>AGUARDENTE SAPUPARA PRATA 480ML</t>
+  </si>
+  <si>
+    <t>AGUARDENTE SAPUPARA PRATA 960ML</t>
+  </si>
+  <si>
+    <t>AGUARDENTE SEGREDO DA CHACARA PRAT.900ML</t>
+  </si>
+  <si>
+    <t>AGUARDENTE YPIOCA 150 ANOS 700ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA ENGOV AFTER RED HITS 250ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA ENGOV AFTER TANGERINA 250ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA FUSION TROPICAL LT 473ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA JUNGLE ENDURANCE LIMONA.500ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA JUNGLE ENDURANCE TANG.500ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA JUNGLE LOW CARB MOR/LIM 500ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA JUNGLE LOW CARB UVA 500ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA MONSTER DRAGON LT 473ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA MONSTER JUICE KHAOTIC LT 473ML</t>
+  </si>
+  <si>
+    <t>BEB.ENERGETICA MONSTER PARADISE LT 473ML</t>
+  </si>
+  <si>
+    <t>BEB.MISTA SCHWEPPES MIXED VODKA CITRUS LT 269ML</t>
+  </si>
+  <si>
+    <t>BEB.MISTA SKOL BEATS GT LN 269ML</t>
+  </si>
+  <si>
+    <t>BEB.MISTA SKOL BEATS RED MIX LN 269ML</t>
+  </si>
+  <si>
+    <t>BEB.MISTA SKOL BEATS SENSES LN 269ML</t>
+  </si>
+  <si>
+    <t>BEBIDA SOJA ADES UVA TP 1L</t>
+  </si>
+  <si>
+    <t>CACHACA CARANGUEIJO OURO 980ML</t>
+  </si>
+  <si>
+    <t>CERVEJA BADEN BADEN CRISTAL LT 350ML</t>
+  </si>
+  <si>
+    <t>CERVEJA BADEN BADEN IPA LT 350ML</t>
+  </si>
+  <si>
+    <t>CERVEJA BLACK PRINCESS P.MALTE LN 330ML</t>
+  </si>
+  <si>
+    <t>CERVEJA BLACK PRINCESS PURO MALTE 350ML</t>
+  </si>
+  <si>
+    <t>CERVEJA BRAHMA CHOPP LT 350ML PACK C/18</t>
+  </si>
+  <si>
+    <t>CERVEJA BRAHMA ZERO LN 355ML</t>
+  </si>
+  <si>
+    <t>CERVEJA BUDWEISER ZERO LN 330ML</t>
+  </si>
+  <si>
+    <t>CERVEJA CERPA TIJUCA LN 355ML</t>
+  </si>
+  <si>
+    <t>CERVEJA EISENBAHN SESSION IPA LN 355ML</t>
+  </si>
+  <si>
+    <t>CERVEJA EISENBAHN UNFILTERED LN 355ML</t>
+  </si>
+  <si>
+    <t>CERVEJA EISENBAHN WEIZENBIER LN 355ML</t>
+  </si>
+  <si>
+    <t>CERVEJA ESTRELLA GALICIA Z.ALCOOL LT 330ML</t>
+  </si>
+  <si>
+    <t>CERVEJA HEINEKEN 0,0% ALCOOL LT 350ML</t>
+  </si>
+  <si>
+    <t>CERVEJA ITAIPAVA MALZEBIER LN 330ML</t>
+  </si>
+  <si>
+    <t>CERVEJA PETRA PURO MALTE LN 330ML</t>
+  </si>
+  <si>
+    <t>CERVEJA TIGER PURO MALTE LT 350ML</t>
+  </si>
+  <si>
+    <t>COQUETEL COMPOSTO SAO BRAZ 300ML</t>
+  </si>
+  <si>
+    <t>COQUETEL COMPOSTO SAO BRAZ PINK 300ML</t>
+  </si>
+  <si>
+    <t>ESPUMANTE SAN MARTIN MOSCATEL 660ML</t>
+  </si>
+  <si>
+    <t>FILTRADO DEL SOLE DOCE ROSE 660ML</t>
+  </si>
+  <si>
+    <t>REFRIG.FANTA LARANJA LT C/6 350ML PROMO</t>
+  </si>
+  <si>
+    <t>REFRIG.FYS TONICA LT 350ML</t>
+  </si>
+  <si>
+    <t>REFRIG.H2OH! LIMONETO 500ML</t>
+  </si>
+  <si>
+    <t>REFRIG.KUAT LT C/6 350ML PROMO</t>
+  </si>
+  <si>
+    <t>REFRIG.KUAT S/ACUAR LT 350ML</t>
+  </si>
+  <si>
+    <t>SIDRA CERESER CELEBRATE 660ML</t>
+  </si>
+  <si>
+    <t>SUCO DE UVA TERRA DO SOL INTEGRAL VD 300ML</t>
+  </si>
+  <si>
+    <t>SUCO DEL VALLE MARACUJA LT 290ML</t>
+  </si>
+  <si>
+    <t>SUCO MARATA CAJA TP 200ML</t>
+  </si>
+  <si>
+    <t>SUCO MARATA CAJU TP 200ML</t>
+  </si>
+  <si>
+    <t>SUCO TAMPICO FRUTAS CITRICAS PET 2L</t>
+  </si>
+  <si>
+    <t>SUCO UVA INTEGRAL QUINTA MORGADO 1L</t>
+  </si>
+  <si>
+    <t>SUCO UVA SABORUVA TINTO 900ML</t>
+  </si>
+  <si>
+    <t>VINHO COLLINA BRANCO SUAVE 750ML</t>
+  </si>
+  <si>
+    <t>VINHO COLLINA TINTO SECO 750ML</t>
+  </si>
+  <si>
+    <t>VODKA GREKH 980ML</t>
+  </si>
+  <si>
+    <t>VODKA KOVAK ICE BLUEBERRY 275ML</t>
+  </si>
+  <si>
+    <t>VODKA KOVAK ICE MARACUJA 275ML</t>
+  </si>
+  <si>
+    <t>VODKA KRISKOF APPLE 900ML</t>
+  </si>
+  <si>
+    <t>VODKA KRISKOF RED FRUITS 900ML</t>
+  </si>
+  <si>
+    <t>VODKA NINNOFF BLUE BLUEBERRY 900ML</t>
+  </si>
+  <si>
+    <t>VODKA SLOVA 970ML</t>
+  </si>
+  <si>
+    <t>VODKA SLOVA MISTA FRUTAS VERMELHAS 965ML</t>
+  </si>
+  <si>
+    <t>VODKA SLOVA MIX MELANCIA 965ML</t>
+  </si>
+  <si>
+    <t>VODKA SMIRNOFF ICE ORIGINAL LT 269ML</t>
+  </si>
+  <si>
+    <t>VODKA SMIRNOFF RED 998ML</t>
+  </si>
+  <si>
+    <t>WHISKY CHIVAS 12ANOS 1L</t>
+  </si>
+  <si>
+    <t>WHISKY JIM BEAM BOURBON 1L</t>
+  </si>
+  <si>
+    <t>ACUCAR CRISTAL OLHO D´AGUA 1KG</t>
+  </si>
+  <si>
+    <t>ACHOC.PO SHOWCAU SCH 370G</t>
+  </si>
+  <si>
+    <t>MERCEARIA DOCE</t>
+  </si>
+  <si>
+    <t>AMENDOIM PETTIZ CROCANTE NATURAL 120G</t>
+  </si>
+  <si>
+    <t>BARRA RECH.BAUDUCCO MAXI CHOCOLATE 25G</t>
+  </si>
+  <si>
+    <t>BATATA PALHA SINHA TRAD.70G</t>
+  </si>
+  <si>
+    <t>BISC.C.CRACKER ESTRELA AGUA E SAL 350G</t>
+  </si>
+  <si>
+    <t>BISC.COOKIES PIRAQUE MALTADO BLACK 80G</t>
+  </si>
+  <si>
+    <t>BISC.COOKIES RICHESTER ESCURETO 80G</t>
+  </si>
+  <si>
+    <t>BISC.OREO BAUNILHA ECON.270G</t>
+  </si>
+  <si>
+    <t>BISC.OSHO BISS BANANA C/CANELA 90G</t>
+  </si>
+  <si>
+    <t>BISC.OSHO CHOCOLITO AO LEITE 90G</t>
+  </si>
+  <si>
+    <t>BISC.PIRAQUE MALTADO CHOC/MALTAD.85G</t>
+  </si>
+  <si>
+    <t>BISC.STICK LOOK ITAMARATY D.LEITE 55G</t>
+  </si>
+  <si>
+    <t>BISC.STICK LOOK ITAMARATY MORANGO 55G</t>
+  </si>
+  <si>
+    <t>BISCOITO BAUDUCCO SPECULOOS 84G</t>
+  </si>
+  <si>
+    <t>BOLINHO BAUDUCCO ROLLCAKE CHOCOLATE 34G</t>
+  </si>
+  <si>
+    <t>BOMBOM BONOBON BEIJINHO 15G</t>
+  </si>
+  <si>
+    <t>CACAU EM PO 100% QUALICOCO 200G</t>
+  </si>
+  <si>
+    <t>CHOCO POWER AO LEITE 80G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE ARCO BLOCK 38G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE ARCO CAJU C/AMENDOIM 60G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE ARCOR AMENDOIM TABLETE 80G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE ARCOR LEITE TABLETE 80G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE BIS LACTA XTRA BRANCO 45G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE DORI DISQUETI CHOCOLATE 40G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA  AO LEITE 50,1G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA AMARO 40%CACAU 80G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA INTENSE 60% CACAU 85G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA INTENSE AMENDOA/FRAMB.85G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA LAKA 145G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA OURO BRANCO RECH.98G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA SHOT 145G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE LACTA SONHO DE VALSA  RECH.98G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE MILKA ALPINE 100G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE NESTLE CLASSIC CHOC/LEITE 150G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE NESTLE KIT KAT DAR.41,5G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE NESTLE NESCAU BALL 75G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE TOBLERONE LEITE 100G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE TWIX ORIGINAL 40G</t>
+  </si>
+  <si>
+    <t>COBERTURA PREDILECTA GOIABADA 200G</t>
+  </si>
+  <si>
+    <t>COCADA MORENINHA CASADINHA TRAD.33G</t>
+  </si>
+  <si>
+    <t>CREME AVELA BOM DA FESTA SCH 150G</t>
+  </si>
+  <si>
+    <t>CREME CHOCOLATE BOM DA FESTA SCH 150G</t>
+  </si>
+  <si>
+    <t>DOCE GOIABA FUGINI PCT 300G</t>
+  </si>
+  <si>
+    <t>DOCE LEITE CAMPONESA BR 200G</t>
+  </si>
+  <si>
+    <t>DOCE LEITE/AMEIXA MARANGUAPE PT 320G</t>
+  </si>
+  <si>
+    <t>FARINHA LACTEA NESTLE SCH 210G</t>
+  </si>
+  <si>
+    <t>FERMENTO FLEISCHMANN 100G</t>
+  </si>
+  <si>
+    <t>GELATINA PO ROYAL LIMAO 25G</t>
+  </si>
+  <si>
+    <t>GELATINA PO ROYAL S/SABOR 24G</t>
+  </si>
+  <si>
+    <t>GELEIA MOCOTO STELLA DORO UVA 180G</t>
+  </si>
+  <si>
+    <t>GOMA DICIGOMA PICOLE 150G</t>
+  </si>
+  <si>
+    <t>GOMA DIGOMA CUBO S.AZEDINHO 80G</t>
+  </si>
+  <si>
+    <t>GRANULADO MESCLADO DORI 120G</t>
+  </si>
+  <si>
+    <t>LEITE COND CAMPONESA SEMIDESNATADO 395G</t>
+  </si>
+  <si>
+    <t>LEITE PO GLORIA DESNATADO LT 300G</t>
+  </si>
+  <si>
+    <t>PACOCA PACOQUITA DIET 176G</t>
+  </si>
+  <si>
+    <t>PASTILHAS VALDA CLASSIC 12G</t>
+  </si>
+  <si>
+    <t>SALG.TOSTITOS REDONDO SAL MARIN.110G</t>
+  </si>
+  <si>
+    <t>SALGADINHO DORITOS SWEET CHILLI 120G</t>
+  </si>
+  <si>
+    <t>ACAFRAO BEM ESTAR 100% PURO 100G</t>
+  </si>
+  <si>
+    <t>MERCEARIA SALGADA</t>
+  </si>
+  <si>
+    <t>ACAFRAO DA TERRA KITANO PO 50G</t>
+  </si>
+  <si>
+    <t>ALHO PICADO MARINAR 200G</t>
+  </si>
+  <si>
+    <t>AMEIXA CALDA ODERICH 150G</t>
+  </si>
+  <si>
+    <t>AROEIRA CASCA GRAO TEMPER 40G</t>
+  </si>
+  <si>
+    <t>AZEITE DENDE CEPERA 200ML</t>
+  </si>
+  <si>
+    <t>AZEITE OLIVA SANTIAGO PREMIUM EX.VIR.VD.250ML</t>
+  </si>
+  <si>
+    <t>CALDO MAGGI MEU SEGREDO CHEIR.VERDE 49G</t>
+  </si>
+  <si>
+    <t>CALDO SAZON GALINHA 11G</t>
+  </si>
+  <si>
+    <t>CATCHUP GOIABA TAMBAU PREMIUM PET 190G</t>
+  </si>
+  <si>
+    <t>CATCHUP PARCERIA TRADICIONAL 389G</t>
+  </si>
+  <si>
+    <t>CHIMICHURRI KITANO SCH 12G</t>
+  </si>
+  <si>
+    <t>COMINHO EM PO KITANO 8G -</t>
+  </si>
+  <si>
+    <t>CREME CEBOLA MAGGI MENOS SODIO 61G</t>
+  </si>
+  <si>
+    <t>CREME DE CEBOLA KITANO 65G</t>
+  </si>
+  <si>
+    <t>ERVILHA FUGINI LT 170G</t>
+  </si>
+  <si>
+    <t>ERVILHA PREDILECTA LT 170G</t>
+  </si>
+  <si>
+    <t>LEITE COCO ADEL COCO VD 500ML</t>
+  </si>
+  <si>
+    <t>LEITE COCO TAMBAU 500ML</t>
+  </si>
+  <si>
+    <t>LEITE UHT PIRACANJUBA A2 SEMIDESN.1L</t>
+  </si>
+  <si>
+    <t>LEITE UHT PIRACANJUBA SEMIDES.1L</t>
+  </si>
+  <si>
+    <t>LEITE VEGETAL POSSIBLE LEITE 1L</t>
+  </si>
+  <si>
+    <t>MAC.INST.NISSIN CUP NOODLES NACHO 68G</t>
+  </si>
+  <si>
+    <t>MAC.INST.NISSIN LEGUMES 80G</t>
+  </si>
+  <si>
+    <t>MAC.INST.NISSIN UFO YAKISSOBA CURRY 96G</t>
+  </si>
+  <si>
+    <t>MAC.INST.NISSIN UFO YAKISSOBA LEGUM.97G</t>
+  </si>
+  <si>
+    <t>MAC.PARAFUSO URBANO INT.PENA 500G</t>
+  </si>
+  <si>
+    <t>MAC.PENNE LAS ACACIAS C/MANJ.400G</t>
+  </si>
+  <si>
+    <t>MOSTARDA PARCERIA TRADICIONAL 389G</t>
+  </si>
+  <si>
+    <t>OLEO COMPOSTO SINHA ERVAS FINAS 500ML</t>
+  </si>
+  <si>
+    <t>OLEO LIZA CANOLA 900ML</t>
+  </si>
+  <si>
+    <t>OLEO SINHA SOJA 900ML</t>
+  </si>
+  <si>
+    <t>OREGANO KITANO 10G</t>
+  </si>
+  <si>
+    <t>PASTA DE ALHO MARINAR 200G</t>
+  </si>
+  <si>
+    <t>PATA DE VACA GRAO TEMPER 10G</t>
+  </si>
+  <si>
+    <t>PATE ATUM GOMES DA COSTA AZEIT.SCH 170G</t>
+  </si>
+  <si>
+    <t>PIMENTA DO REINO PRETA EM PO KITANO 50G</t>
+  </si>
+  <si>
+    <t>PROTEINA SOJA CAMIL TEXT.FRANGO 400G</t>
+  </si>
+  <si>
+    <t>PROTEINA SOJA SINHA NATURAL 400G</t>
+  </si>
+  <si>
+    <t>PROTEINA SOJA SINHA VERMELHA 400G</t>
+  </si>
+  <si>
+    <t>QUEIJO PARMESAO RALADO CAMPONESA 50G</t>
+  </si>
+  <si>
+    <t>QUEIJO PARMESAO RALADO PRESIDENT 50G</t>
+  </si>
+  <si>
+    <t>REFOGA FACIL MARINAR 500ML</t>
+  </si>
+  <si>
+    <t>SALSICHA BORDON APERITIVO 150G</t>
+  </si>
+  <si>
+    <t>SALSICHA LT BORDON TP VIENA 180G</t>
+  </si>
+  <si>
+    <t>SARDINHA GOMES DA COSTA DEFUMADO 125G</t>
+  </si>
+  <si>
+    <t>TEMPERO ANA MARIA GRAO TEMPER PT 25G</t>
+  </si>
+  <si>
+    <t>TEMPERO BAIANO BEM ESTAR 50G</t>
+  </si>
+  <si>
+    <t>TEMPERO CASEIRO S/PIMENTA MARINAR 500ML</t>
+  </si>
+  <si>
+    <t>TEMPERO COMPLETO SABOR AMI C/PIMENT.300G</t>
+  </si>
+  <si>
+    <t>TEMPERO DA ROCA CASEIRO C/AMAC.500ML</t>
+  </si>
+  <si>
+    <t>TEMPERO MISTO DONA CLARA 500G</t>
+  </si>
+  <si>
+    <t>TEMPERO SAZON FLOPPY PIPOCA CHURRASCO 60G</t>
+  </si>
+  <si>
+    <t>TOMATE PELADO VINCENTE SO LT 400G</t>
+  </si>
+  <si>
+    <t>CR.DENTAL ORAL-B STAGES CHICLETE 100G</t>
+  </si>
+  <si>
+    <t>PERFUMARIA INFANTIL</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.MILI LOVE CARE JUMB0 XXG C/20</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.MILI LOVE CARE JUMBO GD C/24</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.MILI LOVE CARE JUMBO MD C/26</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.MILI LOVE CARE MEGA XXG C/40</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.MILI LOVE CARE PANTS</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.MILI VITA GERIATRICA GD C/8</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.PAMPERS SUPERSEC MD C/30</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.PAMPERS SUPERSEC XG C/22</t>
+  </si>
+  <si>
+    <t>FRALDA DESC.PAMPERS SUPERSEC XXG C/20</t>
+  </si>
+  <si>
+    <t>LENCO UMEDEC.PAMPERS ALOE VERA 48UN</t>
+  </si>
+  <si>
+    <t>SAB.JOHNSONS BABY TRADICIONAL 80G</t>
+  </si>
+  <si>
+    <t>SAB.LIQ.PROTEX CARVAO DETOX 250ML</t>
+  </si>
+  <si>
+    <t>TOALHA UMED.MILI BABY AZUL C/100</t>
+  </si>
+  <si>
+    <t>RACAO DOG CHOW AD.FRANGO AO MOLHO 100G</t>
+  </si>
+  <si>
+    <t>PETSHOP</t>
+  </si>
+  <si>
+    <t>RACAO DOG CHOW FL.FRANGO AO MOLHO 100G</t>
+  </si>
+  <si>
+    <t>RACAO DOGCHOW MINI/PEQ.CAR/FRA/ARR.10,1KG</t>
+  </si>
+  <si>
+    <t>RACAO FARO CAO ADULT CARNE AO MOLHO SCH 85G</t>
+  </si>
+  <si>
+    <t>RACAO FARO CAO ADULT FRANGO SCH 85G</t>
+  </si>
+  <si>
+    <t>RACAO FARO GATO ADULT CORDEIRO SCH 85G</t>
+  </si>
+  <si>
+    <t>RACAO FARO GATO ADULT FRANGO SCH 85G</t>
+  </si>
+  <si>
+    <t>RACAO FARO GATO ADULT PEIXE SCH 85G</t>
+  </si>
+  <si>
+    <t>RACAO FARO GATO FILHOTES CARNE SCH 85G</t>
+  </si>
+  <si>
+    <t>RACAO KANINA FILHOTES CARNE/CEREAIS KG</t>
+  </si>
+  <si>
+    <t>RACAO KITEKAT AD.MIX DE CARNES LV.10,1 P.9KG SACA</t>
+  </si>
+  <si>
+    <t>RACAO PEDIGREE ADULTO 7 100G</t>
+  </si>
+  <si>
+    <t>RACAO PEDIGREE ADULTO SH CORDEI.MOL.100G</t>
+  </si>
+  <si>
+    <t>RACAO PRA AVES P/BELGA 500G</t>
+  </si>
+  <si>
+    <t>RACAO VITTAMAX CLASSIC 10,1KG SACA</t>
+  </si>
+  <si>
+    <t>RACAO WHISKAS AD.ATUM SC.85G</t>
+  </si>
+  <si>
+    <t>RACAO WHISKAS AD.FRANGO AO MOLH.SC.85G</t>
+  </si>
+  <si>
+    <t>RACAO WHISKAS ADULTO CARNE 900G</t>
+  </si>
+  <si>
+    <t>RACAO WHISKAS SR.CARNE SC.85G</t>
+  </si>
+  <si>
+    <t>TAPETE HIG.PROCAO 80X60CM C/7UND</t>
   </si>
 </sst>
 </file>
@@ -626,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A2" sqref="A2:A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -668,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -684,28 +1221,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>1181130</v>
+        <v>618535</v>
       </c>
       <c r="E2" s="1">
-        <v>7898947188393</v>
+        <v>7896619000011</v>
       </c>
       <c r="F2" s="4">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
-        <v>985</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2"/>
@@ -713,28 +1250,28 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>21183</v>
+        <v>618713</v>
       </c>
       <c r="E3" s="1">
-        <v>7898402890397</v>
+        <v>7896619000042</v>
       </c>
       <c r="F3" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3"/>
@@ -742,28 +1279,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>614599</v>
+        <v>618594</v>
       </c>
       <c r="E4" s="1">
-        <v>7898402890021</v>
+        <v>7896619000028</v>
       </c>
       <c r="F4" s="4">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4"/>
@@ -771,28 +1308,28 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1328174</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7896685200278</v>
+      </c>
+      <c r="F5" s="4">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>30867</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7898366932959</v>
-      </c>
-      <c r="F5" s="4">
-        <v>34</v>
-      </c>
       <c r="G5" s="3">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5"/>
@@ -800,28 +1337,28 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>616869</v>
+        <v>1179489</v>
       </c>
       <c r="E6" s="1">
-        <v>7891095100729</v>
+        <v>7896383730107</v>
       </c>
       <c r="F6" s="4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6"/>
@@ -829,28 +1366,28 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>34369</v>
+        <v>23891</v>
       </c>
       <c r="E7" s="1">
-        <v>7898912485267</v>
+        <v>7896094925120</v>
       </c>
       <c r="F7" s="4">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7"/>
@@ -858,28 +1395,28 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>898546</v>
+        <v>11072</v>
       </c>
       <c r="E8" s="1">
-        <v>7898034920424</v>
+        <v>7896094919709</v>
       </c>
       <c r="F8" s="4">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8"/>
@@ -887,28 +1424,28 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>744891</v>
+        <v>34826</v>
       </c>
       <c r="E9" s="1">
-        <v>7891080400674</v>
+        <v>7891991306379</v>
       </c>
       <c r="F9" s="4">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9"/>
@@ -916,28 +1453,28 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>746002</v>
+        <v>30865</v>
       </c>
       <c r="E10" s="1">
-        <v>7898403780604</v>
+        <v>7898692300859</v>
       </c>
       <c r="F10" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10"/>
@@ -945,28 +1482,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>1156128</v>
+        <v>30861</v>
       </c>
       <c r="E11" s="1">
-        <v>7898034922800</v>
+        <v>7898692300866</v>
       </c>
       <c r="F11" s="4">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11"/>
@@ -974,28 +1511,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>1340573</v>
+        <v>30863</v>
       </c>
       <c r="E12" s="1">
-        <v>7898034920844</v>
+        <v>7898692300873</v>
       </c>
       <c r="F12" s="4">
-        <v>999</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12"/>
@@ -1003,28 +1540,28 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>28909</v>
+        <v>30862</v>
       </c>
       <c r="E13" s="1">
-        <v>618231553136</v>
+        <v>7898692300880</v>
       </c>
       <c r="F13" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13"/>
@@ -1032,28 +1569,28 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>737194</v>
+        <v>1431085</v>
       </c>
       <c r="E14" s="1">
-        <v>7891515901066</v>
+        <v>70847034803</v>
       </c>
       <c r="F14" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14"/>
@@ -1061,28 +1598,28 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>31857</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1220000250147</v>
+      </c>
+      <c r="F15" s="4">
+        <v>52</v>
+      </c>
+      <c r="G15" s="3">
         <v>24</v>
       </c>
-      <c r="D15">
-        <v>737267</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7891080400063</v>
-      </c>
-      <c r="F15" s="4">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3">
-        <v>33</v>
-      </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15"/>
@@ -1090,28 +1627,28 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>1213326</v>
+        <v>13247</v>
       </c>
       <c r="E16" s="1">
-        <v>7894904271528</v>
+        <v>1220000250000</v>
       </c>
       <c r="F16" s="4">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16"/>
@@ -1119,28 +1656,28 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>20196</v>
+        <v>35689</v>
       </c>
       <c r="E17" s="1">
-        <v>7891515557461</v>
+        <v>7894900184273</v>
       </c>
       <c r="F17" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17"/>
@@ -1148,28 +1685,28 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>1424700</v>
+        <v>20139</v>
       </c>
       <c r="E18" s="1">
-        <v>7891025119456</v>
+        <v>7891991301114</v>
       </c>
       <c r="F18" s="4">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="G18" s="3">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18"/>
@@ -1177,28 +1714,28 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>735957</v>
+        <v>36801</v>
       </c>
       <c r="E19" s="1">
-        <v>7896104866009</v>
+        <v>7891991307208</v>
       </c>
       <c r="F19" s="4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19"/>
@@ -1206,28 +1743,28 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>736074</v>
+        <v>20140</v>
       </c>
       <c r="E20" s="1">
-        <v>7896104865453</v>
+        <v>7891991301138</v>
       </c>
       <c r="F20" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20"/>
@@ -1235,28 +1772,28 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>32825</v>
+        <v>732567</v>
       </c>
       <c r="E21" s="1">
-        <v>7899941202818</v>
+        <v>7894900087123</v>
       </c>
       <c r="F21" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21"/>
@@ -1264,28 +1801,28 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>34887</v>
+        <v>1399993</v>
       </c>
       <c r="E22" s="1">
-        <v>7899941206243</v>
+        <v>7896087200043</v>
       </c>
       <c r="F22" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22"/>
@@ -1293,28 +1830,28 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>34887</v>
+        <v>21382</v>
       </c>
       <c r="E23" s="1">
-        <v>7899941206267</v>
+        <v>7898230716616</v>
       </c>
       <c r="F23" s="4">
         <v>25</v>
       </c>
       <c r="G23" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23"/>
@@ -1322,28 +1859,28 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>34887</v>
+        <v>21380</v>
       </c>
       <c r="E24" s="1">
-        <v>7899941206281</v>
+        <v>7898230716654</v>
       </c>
       <c r="F24" s="4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G24" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24"/>
@@ -1351,28 +1888,28 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>1429960</v>
+        <v>24885</v>
       </c>
       <c r="E25" s="1">
-        <v>7891048038062</v>
+        <v>7897395000769</v>
       </c>
       <c r="F25" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25"/>
@@ -1380,28 +1917,28 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>33763</v>
+        <v>19636</v>
       </c>
       <c r="E26" s="1">
-        <v>7896013100171</v>
+        <v>7898377661060</v>
       </c>
       <c r="F26" s="4">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G26" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26"/>
@@ -1409,28 +1946,28 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>1158902</v>
+        <v>35843</v>
       </c>
       <c r="E27" s="1">
-        <v>7896013105640</v>
+        <v>7891149107797</v>
       </c>
       <c r="F27" s="4">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G27" s="3">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27"/>
@@ -1438,28 +1975,28 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>35881</v>
+        <v>1114107</v>
       </c>
       <c r="E28" s="1">
-        <v>7896013109310</v>
+        <v>7891149104956</v>
       </c>
       <c r="F28" s="4">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G28" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28"/>
@@ -1467,158 +2004,4942 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>35881</v>
+        <v>27579</v>
       </c>
       <c r="E29" s="1">
-        <v>7896013109310</v>
+        <v>7891991298421</v>
       </c>
       <c r="F29" s="4">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G29" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>35881</v>
+        <v>31270</v>
       </c>
       <c r="E30" s="1">
-        <v>7896013109310</v>
+        <v>7896388010662</v>
       </c>
       <c r="F30" s="4">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G30" s="3">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>35881</v>
+        <v>25743</v>
       </c>
       <c r="E31" s="1">
-        <v>7896013109310</v>
+        <v>7898367984254</v>
       </c>
       <c r="F31" s="4">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>35881</v>
+        <v>23491</v>
       </c>
       <c r="E32" s="1">
-        <v>7896013109310</v>
+        <v>7898367984346</v>
       </c>
       <c r="F32" s="4">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="G32" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>35881</v>
+        <v>1201581</v>
       </c>
       <c r="E33" s="1">
-        <v>7896013109310</v>
+        <v>7898367980041</v>
       </c>
       <c r="F33" s="4">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G33" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>14507</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8412598000478</v>
+      </c>
+      <c r="F34" s="4">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>13248</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7896045506064</v>
+      </c>
+      <c r="F35" s="2">
+        <v>68</v>
+      </c>
+      <c r="G35" s="1">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>23130</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7897395000943</v>
+      </c>
+      <c r="F36" s="2">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>24893</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7897395001032</v>
+      </c>
+      <c r="F37" s="2">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>19603</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7896045506705</v>
+      </c>
+      <c r="F38" s="2">
+        <v>470</v>
+      </c>
+      <c r="G38" s="1">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>1252372</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7898251890289</v>
+      </c>
+      <c r="F39" s="2">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>33574</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7898251891002</v>
+      </c>
+      <c r="F40" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>20581</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7896267774074</v>
+      </c>
+      <c r="F41" s="2">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D42">
+        <v>1428814</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7896100501720</v>
+      </c>
+      <c r="F42" s="2">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>20186</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7894900031324</v>
+      </c>
+      <c r="F43" s="2">
+        <v>33</v>
+      </c>
+      <c r="G43" s="1">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>23942</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7896052607594</v>
+      </c>
+      <c r="F44" s="2">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>1171666</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7892840812850</v>
+      </c>
+      <c r="F45" s="2">
+        <v>60</v>
+      </c>
+      <c r="G45" s="1">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>31692</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7894900910490</v>
+      </c>
+      <c r="F46" s="2">
+        <v>19</v>
+      </c>
+      <c r="G46" s="1">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>697451</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7894900920017</v>
+      </c>
+      <c r="F47" s="2">
+        <v>27</v>
+      </c>
+      <c r="G47" s="1">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>1349783</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7896072911022</v>
+      </c>
+      <c r="F48" s="2">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1">
+        <v>98</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>1432329</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7898908636109</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>1431087</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7894900660302</v>
+      </c>
+      <c r="F50" s="2">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>20078</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7898378180843</v>
+      </c>
+      <c r="F51" s="2">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>934097</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7898378180171</v>
+      </c>
+      <c r="F52" s="2">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53">
+        <v>626341</v>
+      </c>
+      <c r="E53" s="1">
+        <v>95188878572</v>
+      </c>
+      <c r="F53" s="2">
+        <v>61</v>
+      </c>
+      <c r="G53" s="1">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>1388215</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7896037913719</v>
+      </c>
+      <c r="F54" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55">
+        <v>30339</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7896267781805</v>
+      </c>
+      <c r="F55" s="2">
+        <v>60</v>
+      </c>
+      <c r="G55" s="1">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>1428817</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7896100500792</v>
+      </c>
+      <c r="F56" s="2">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57">
+        <v>15023</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7896100500815</v>
+      </c>
+      <c r="F57" s="2">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>14576</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7896267777099</v>
+      </c>
+      <c r="F58" s="2">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>12843</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7896022670214</v>
+      </c>
+      <c r="F59" s="2">
+        <v>17</v>
+      </c>
+      <c r="G59" s="1">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>12844</v>
+      </c>
+      <c r="E60" s="1">
+        <v>7896022670221</v>
+      </c>
+      <c r="F60" s="2">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61">
+        <v>1328298</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7896685200629</v>
+      </c>
+      <c r="F61" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>1328409</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7896685200643</v>
+      </c>
+      <c r="F62" s="2">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1">
+        <v>59</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63">
+        <v>1310887</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7897736407240</v>
+      </c>
+      <c r="F63" s="2">
+        <v>23</v>
+      </c>
+      <c r="G63" s="1">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>689653</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7898012860537</v>
+      </c>
+      <c r="F64" s="2">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65">
+        <v>1377906</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7898012860421</v>
+      </c>
+      <c r="F65" s="2">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1">
+        <v>59</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66">
+        <v>28184</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7898012862180</v>
+      </c>
+      <c r="F66" s="2">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <v>1342622</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7893218003610</v>
+      </c>
+      <c r="F67" s="2">
+        <v>24</v>
+      </c>
+      <c r="G67" s="1">
+        <v>654</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>690775</v>
+      </c>
+      <c r="E68" s="1">
+        <v>7893218000473</v>
+      </c>
+      <c r="F68" s="2">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69">
+        <v>628158</v>
+      </c>
+      <c r="E69" s="1">
+        <v>80432400432</v>
+      </c>
+      <c r="F69" s="2">
+        <v>19</v>
+      </c>
+      <c r="G69" s="1">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70">
+        <v>36815</v>
+      </c>
+      <c r="E70" s="1">
+        <v>80686027638</v>
+      </c>
+      <c r="F70" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>1123629</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7898994678014</v>
+      </c>
+      <c r="F71" s="2">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72">
+        <v>37898</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7896292399648</v>
+      </c>
+      <c r="F72" s="2">
+        <v>117</v>
+      </c>
+      <c r="G72" s="1">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73">
+        <v>27624</v>
+      </c>
+      <c r="E73" s="1">
+        <v>7896058599831</v>
+      </c>
+      <c r="F73" s="2">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>866024</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7891962007366</v>
+      </c>
+      <c r="F74" s="2">
+        <v>38</v>
+      </c>
+      <c r="G74" s="1">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75">
+        <v>33706</v>
+      </c>
+      <c r="E75" s="1">
+        <v>7892300003569</v>
+      </c>
+      <c r="F75" s="2">
+        <v>48</v>
+      </c>
+      <c r="G75" s="1">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76">
+        <v>13484</v>
+      </c>
+      <c r="E76" s="1">
+        <v>7896264670607</v>
+      </c>
+      <c r="F76" s="2">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1">
+        <v>68</v>
+      </c>
+      <c r="H76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>35620</v>
+      </c>
+      <c r="E77" s="1">
+        <v>7896024761828</v>
+      </c>
+      <c r="F77" s="2">
+        <v>39</v>
+      </c>
+      <c r="G77" s="1">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78">
+        <v>19677</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7891152801279</v>
+      </c>
+      <c r="F78" s="2">
+        <v>56</v>
+      </c>
+      <c r="G78" s="1">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <v>1381113</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7622210794765</v>
+      </c>
+      <c r="F79" s="2">
+        <v>33</v>
+      </c>
+      <c r="G79" s="1">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80">
+        <v>1352652</v>
+      </c>
+      <c r="E80" s="1">
+        <v>7898917041178</v>
+      </c>
+      <c r="F80" s="2">
+        <v>17</v>
+      </c>
+      <c r="G80" s="1">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81">
+        <v>1352679</v>
+      </c>
+      <c r="E81" s="1">
+        <v>7898917041192</v>
+      </c>
+      <c r="F81" s="2">
+        <v>12</v>
+      </c>
+      <c r="G81" s="1">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82">
+        <v>28071</v>
+      </c>
+      <c r="E82" s="1">
+        <v>7896024761354</v>
+      </c>
+      <c r="F82" s="2">
+        <v>40</v>
+      </c>
+      <c r="G82" s="1">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83">
+        <v>34651</v>
+      </c>
+      <c r="E83" s="1">
+        <v>835281000421</v>
+      </c>
+      <c r="F83" s="2">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1">
+        <v>43</v>
+      </c>
+      <c r="H83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84">
+        <v>1061534</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7891340303332</v>
+      </c>
+      <c r="F84" s="2">
+        <v>18</v>
+      </c>
+      <c r="G84" s="1">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85">
+        <v>36418</v>
+      </c>
+      <c r="E85" s="1">
+        <v>7891962076317</v>
+      </c>
+      <c r="F85" s="2">
+        <v>17</v>
+      </c>
+      <c r="G85" s="1">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86">
+        <v>1272721</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7891962051574</v>
+      </c>
+      <c r="F86" s="2">
+        <v>46</v>
+      </c>
+      <c r="G86" s="1">
+        <v>23</v>
+      </c>
+      <c r="H86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <v>1412019</v>
+      </c>
+      <c r="E87" s="1">
+        <v>78931251</v>
+      </c>
+      <c r="F87" s="2">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88">
+        <v>1374109</v>
+      </c>
+      <c r="E88" s="1">
+        <v>7896552906258</v>
+      </c>
+      <c r="F88" s="2">
+        <v>13</v>
+      </c>
+      <c r="G88" s="1">
+        <v>36</v>
+      </c>
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89">
+        <v>17101</v>
+      </c>
+      <c r="E89" s="1">
+        <v>7896072641585</v>
+      </c>
+      <c r="F89" s="2">
+        <v>17</v>
+      </c>
+      <c r="G89" s="1">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90">
+        <v>37469</v>
+      </c>
+      <c r="E90" s="1">
+        <v>77953124</v>
+      </c>
+      <c r="F90" s="2">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91">
+        <v>33468</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7898142865891</v>
+      </c>
+      <c r="F91" s="2">
+        <v>12</v>
+      </c>
+      <c r="G91" s="1">
+        <v>101</v>
+      </c>
+      <c r="H91" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92">
+        <v>21563</v>
+      </c>
+      <c r="E92" s="1">
+        <v>7898142863835</v>
+      </c>
+      <c r="F92" s="2">
+        <v>12</v>
+      </c>
+      <c r="G92" s="1">
+        <v>281</v>
+      </c>
+      <c r="H92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93">
+        <v>21562</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7898142863798</v>
+      </c>
+      <c r="F93" s="2">
+        <v>12</v>
+      </c>
+      <c r="G93" s="1">
+        <v>54</v>
+      </c>
+      <c r="H93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94">
+        <v>37905</v>
+      </c>
+      <c r="E94" s="1">
+        <v>7622210534576</v>
+      </c>
+      <c r="F94" s="2">
+        <v>96</v>
+      </c>
+      <c r="G94" s="1">
+        <v>26</v>
+      </c>
+      <c r="H94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95">
+        <v>1402951</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7896058593365</v>
+      </c>
+      <c r="F95" s="2">
+        <v>18</v>
+      </c>
+      <c r="G95" s="1">
+        <v>23</v>
+      </c>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96">
+        <v>37904</v>
+      </c>
+      <c r="E96" s="1">
+        <v>7622202274558</v>
+      </c>
+      <c r="F96" s="2">
+        <v>21</v>
+      </c>
+      <c r="G96" s="1">
+        <v>26</v>
+      </c>
+      <c r="H96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97">
+        <v>27574</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7622210674432</v>
+      </c>
+      <c r="F97" s="2">
+        <v>68</v>
+      </c>
+      <c r="G97" s="1">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98">
+        <v>1397192</v>
+      </c>
+      <c r="E98" s="1">
+        <v>7622210689573</v>
+      </c>
+      <c r="F98" s="2">
+        <v>24</v>
+      </c>
+      <c r="G98" s="1">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99">
+        <v>23450</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7622210570598</v>
+      </c>
+      <c r="F99" s="2">
+        <v>30</v>
+      </c>
+      <c r="G99" s="1">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100">
+        <v>36244</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7622210534897</v>
+      </c>
+      <c r="F100" s="2">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1">
+        <v>48</v>
+      </c>
+      <c r="H100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101">
+        <v>31231</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7622210528216</v>
+      </c>
+      <c r="F101" s="2">
+        <v>72</v>
+      </c>
+      <c r="G101" s="1">
+        <v>18</v>
+      </c>
+      <c r="H101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102">
+        <v>36246</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7622210534866</v>
+      </c>
+      <c r="F102" s="2">
+        <v>12</v>
+      </c>
+      <c r="G102" s="1">
+        <v>56</v>
+      </c>
+      <c r="H102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103">
+        <v>31227</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7622210528186</v>
+      </c>
+      <c r="F103" s="2">
+        <v>69</v>
+      </c>
+      <c r="G103" s="1">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104">
+        <v>29385</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3045140105502</v>
+      </c>
+      <c r="F104" s="2">
+        <v>20</v>
+      </c>
+      <c r="G104" s="1">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105">
+        <v>23114</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7891000361214</v>
+      </c>
+      <c r="F105" s="2">
+        <v>22</v>
+      </c>
+      <c r="G105" s="1">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106">
+        <v>1288210</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7891000248829</v>
+      </c>
+      <c r="F106" s="2">
+        <v>24</v>
+      </c>
+      <c r="G106" s="1">
+        <v>101</v>
+      </c>
+      <c r="H106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107">
+        <v>25922</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7891000338285</v>
+      </c>
+      <c r="F107" s="2">
+        <v>12</v>
+      </c>
+      <c r="G107" s="1">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108">
+        <v>722260</v>
+      </c>
+      <c r="E108" s="1">
+        <v>7614500010013</v>
+      </c>
+      <c r="F108" s="2">
+        <v>12</v>
+      </c>
+      <c r="G108" s="1">
+        <v>125</v>
+      </c>
+      <c r="H108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109">
+        <v>10532</v>
+      </c>
+      <c r="E109" s="1">
+        <v>7896423470994</v>
+      </c>
+      <c r="F109" s="2">
+        <v>22</v>
+      </c>
+      <c r="G109" s="1">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110">
+        <v>36154</v>
+      </c>
+      <c r="E110" s="1">
+        <v>7896292399990</v>
+      </c>
+      <c r="F110" s="2">
+        <v>28</v>
+      </c>
+      <c r="G110" s="1">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111">
+        <v>35086</v>
+      </c>
+      <c r="E111" s="1">
+        <v>7898928536595</v>
+      </c>
+      <c r="F111" s="2">
+        <v>77</v>
+      </c>
+      <c r="G111" s="1">
+        <v>31</v>
+      </c>
+      <c r="H111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112">
+        <v>34716</v>
+      </c>
+      <c r="E112" s="1">
+        <v>7897259402616</v>
+      </c>
+      <c r="F112" s="2">
+        <v>12</v>
+      </c>
+      <c r="G112" s="1">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113">
+        <v>34718</v>
+      </c>
+      <c r="E113" s="1">
+        <v>7897259402623</v>
+      </c>
+      <c r="F113" s="2">
+        <v>19</v>
+      </c>
+      <c r="G113" s="1">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114">
+        <v>36794</v>
+      </c>
+      <c r="E114" s="1">
+        <v>7897517200015</v>
+      </c>
+      <c r="F114" s="2">
+        <v>17</v>
+      </c>
+      <c r="G114" s="1">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115">
+        <v>716405</v>
+      </c>
+      <c r="E115" s="1">
+        <v>7896259412090</v>
+      </c>
+      <c r="F115" s="2">
+        <v>23</v>
+      </c>
+      <c r="G115" s="1">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116">
+        <v>720933</v>
+      </c>
+      <c r="E116" s="1">
+        <v>7896510100278</v>
+      </c>
+      <c r="F116" s="2">
+        <v>13</v>
+      </c>
+      <c r="G116" s="1">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117">
+        <v>1045539</v>
+      </c>
+      <c r="E117" s="1">
+        <v>7891000099032</v>
+      </c>
+      <c r="F117" s="2">
+        <v>73</v>
+      </c>
+      <c r="G117" s="1">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118">
+        <v>1129465</v>
+      </c>
+      <c r="E118" s="1">
+        <v>7898409951046</v>
+      </c>
+      <c r="F118" s="2">
+        <v>13</v>
+      </c>
+      <c r="G118" s="1">
+        <v>32</v>
+      </c>
+      <c r="H118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119">
+        <v>704431</v>
+      </c>
+      <c r="E119" s="1">
+        <v>7622300859893</v>
+      </c>
+      <c r="F119" s="2">
+        <v>14</v>
+      </c>
+      <c r="G119" s="1">
+        <v>68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120">
+        <v>705055</v>
+      </c>
+      <c r="E120" s="1">
+        <v>7893333229001</v>
+      </c>
+      <c r="F120" s="2">
+        <v>15</v>
+      </c>
+      <c r="G120" s="1">
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121">
+        <v>1432320</v>
+      </c>
+      <c r="E121" s="1">
+        <v>7898902299997</v>
+      </c>
+      <c r="F121" s="2">
+        <v>24</v>
+      </c>
+      <c r="G121" s="1">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122">
+        <v>36310</v>
+      </c>
+      <c r="E122" s="1">
+        <v>7896451925534</v>
+      </c>
+      <c r="F122" s="2">
+        <v>13</v>
+      </c>
+      <c r="G122" s="1">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123">
+        <v>36306</v>
+      </c>
+      <c r="E123" s="1">
+        <v>7896451922892</v>
+      </c>
+      <c r="F123" s="2">
+        <v>12</v>
+      </c>
+      <c r="G123" s="1">
+        <v>66</v>
+      </c>
+      <c r="H123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124">
+        <v>27637</v>
+      </c>
+      <c r="E124" s="1">
+        <v>7896058599930</v>
+      </c>
+      <c r="F124" s="2">
+        <v>15</v>
+      </c>
+      <c r="G124" s="1">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125">
+        <v>1431537</v>
+      </c>
+      <c r="E125" s="1">
+        <v>7896259420002</v>
+      </c>
+      <c r="F125" s="2">
+        <v>62</v>
+      </c>
+      <c r="G125" s="1">
+        <v>31</v>
+      </c>
+      <c r="H125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126">
+        <v>1055941</v>
+      </c>
+      <c r="E126" s="1">
+        <v>7896183210045</v>
+      </c>
+      <c r="F126" s="2">
+        <v>12</v>
+      </c>
+      <c r="G126" s="1">
+        <v>124</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127">
+        <v>1200178</v>
+      </c>
+      <c r="E127" s="1">
+        <v>7896336002732</v>
+      </c>
+      <c r="F127" s="2">
+        <v>21</v>
+      </c>
+      <c r="G127" s="1">
+        <v>105</v>
+      </c>
+      <c r="H127" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128">
+        <v>28901</v>
+      </c>
+      <c r="E128" s="1">
+        <v>78906884</v>
+      </c>
+      <c r="F128" s="2">
+        <v>22</v>
+      </c>
+      <c r="G128" s="1">
+        <v>162</v>
+      </c>
+      <c r="H128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129">
+        <v>34952</v>
+      </c>
+      <c r="E129" s="1">
+        <v>7892840823566</v>
+      </c>
+      <c r="F129" s="2">
+        <v>13</v>
+      </c>
+      <c r="G129" s="1">
+        <v>50</v>
+      </c>
+      <c r="H129" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130">
+        <v>34124</v>
+      </c>
+      <c r="E130" s="1">
+        <v>7892840822729</v>
+      </c>
+      <c r="F130" s="2">
+        <v>25</v>
+      </c>
+      <c r="G130" s="1">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131">
+        <v>20268</v>
+      </c>
+      <c r="E131" s="1">
+        <v>7893590207262</v>
+      </c>
+      <c r="F131" s="2">
+        <v>18</v>
+      </c>
+      <c r="G131" s="1">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>146</v>
+      </c>
+      <c r="D132">
+        <v>29247</v>
+      </c>
+      <c r="E132" s="1">
+        <v>7891095150359</v>
+      </c>
+      <c r="F132" s="2">
+        <v>24</v>
+      </c>
+      <c r="G132" s="1">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133">
+        <v>1254537</v>
+      </c>
+      <c r="E133" s="1">
+        <v>7898959802324</v>
+      </c>
+      <c r="F133" s="2">
+        <v>12</v>
+      </c>
+      <c r="G133" s="1">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134">
+        <v>715867</v>
+      </c>
+      <c r="E134" s="1">
+        <v>7896041173789</v>
+      </c>
+      <c r="F134" s="2">
+        <v>13</v>
+      </c>
+      <c r="G134" s="1">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>149</v>
+      </c>
+      <c r="D135">
+        <v>1402536</v>
+      </c>
+      <c r="E135" s="1">
+        <v>7898679520843</v>
+      </c>
+      <c r="F135" s="2">
+        <v>14</v>
+      </c>
+      <c r="G135" s="1">
+        <v>37</v>
+      </c>
+      <c r="H135" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136">
+        <v>1318101</v>
+      </c>
+      <c r="E136" s="1">
+        <v>7896025800113</v>
+      </c>
+      <c r="F136" s="2">
+        <v>18</v>
+      </c>
+      <c r="G136" s="1">
+        <v>97</v>
+      </c>
+      <c r="H136" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137">
+        <v>33033</v>
+      </c>
+      <c r="E137" s="1">
+        <v>7804622380006</v>
+      </c>
+      <c r="F137" s="2">
+        <v>38</v>
+      </c>
+      <c r="G137" s="1">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>152</v>
+      </c>
+      <c r="D138">
+        <v>22860</v>
+      </c>
+      <c r="E138" s="1">
+        <v>7891000339916</v>
+      </c>
+      <c r="F138" s="2">
+        <v>22</v>
+      </c>
+      <c r="G138" s="1">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>153</v>
+      </c>
+      <c r="D139">
+        <v>35060</v>
+      </c>
+      <c r="E139" s="1">
+        <v>7891132165377</v>
+      </c>
+      <c r="F139" s="2">
+        <v>76</v>
+      </c>
+      <c r="G139" s="1">
+        <v>27</v>
+      </c>
+      <c r="H139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140">
+        <v>35497</v>
+      </c>
+      <c r="E140" s="1">
+        <v>7896945403401</v>
+      </c>
+      <c r="F140" s="2">
+        <v>18</v>
+      </c>
+      <c r="G140" s="1">
+        <v>19</v>
+      </c>
+      <c r="H140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141">
+        <v>34756</v>
+      </c>
+      <c r="E141" s="1">
+        <v>7898701760469</v>
+      </c>
+      <c r="F141" s="2">
+        <v>41</v>
+      </c>
+      <c r="G141" s="1">
+        <v>49</v>
+      </c>
+      <c r="H141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142">
+        <v>27526</v>
+      </c>
+      <c r="E142" s="1">
+        <v>7891095026494</v>
+      </c>
+      <c r="F142" s="2">
+        <v>24</v>
+      </c>
+      <c r="G142" s="1">
+        <v>224</v>
+      </c>
+      <c r="H142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>157</v>
+      </c>
+      <c r="D143">
+        <v>27528</v>
+      </c>
+      <c r="E143" s="1">
+        <v>7891095154234</v>
+      </c>
+      <c r="F143" s="2">
+        <v>24</v>
+      </c>
+      <c r="G143" s="1">
+        <v>303</v>
+      </c>
+      <c r="H143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144">
+        <v>1371983</v>
+      </c>
+      <c r="E144" s="1">
+        <v>7891000279380</v>
+      </c>
+      <c r="F144" s="2">
+        <v>13</v>
+      </c>
+      <c r="G144" s="1">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145">
+        <v>15801</v>
+      </c>
+      <c r="E145" s="1">
+        <v>7891095003822</v>
+      </c>
+      <c r="F145" s="2">
+        <v>12</v>
+      </c>
+      <c r="G145" s="1">
+        <v>369</v>
+      </c>
+      <c r="H145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146">
+        <v>1419102</v>
+      </c>
+      <c r="E146" s="1">
+        <v>7897517209407</v>
+      </c>
+      <c r="F146" s="2">
+        <v>30</v>
+      </c>
+      <c r="G146" s="1">
+        <v>197</v>
+      </c>
+      <c r="H146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147">
+        <v>19681</v>
+      </c>
+      <c r="E147" s="1">
+        <v>7896292340541</v>
+      </c>
+      <c r="F147" s="2">
+        <v>33</v>
+      </c>
+      <c r="G147" s="1">
+        <v>70</v>
+      </c>
+      <c r="H147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148">
+        <v>35212</v>
+      </c>
+      <c r="E148" s="1">
+        <v>7896552905725</v>
+      </c>
+      <c r="F148" s="2">
+        <v>19</v>
+      </c>
+      <c r="G148" s="1">
+        <v>67</v>
+      </c>
+      <c r="H148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149">
+        <v>1127810</v>
+      </c>
+      <c r="E149" s="1">
+        <v>7896945402039</v>
+      </c>
+      <c r="F149" s="2">
+        <v>28</v>
+      </c>
+      <c r="G149" s="1">
+        <v>18</v>
+      </c>
+      <c r="H149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150">
+        <v>31483</v>
+      </c>
+      <c r="E150" s="1">
+        <v>7898215157786</v>
+      </c>
+      <c r="F150" s="2">
+        <v>12</v>
+      </c>
+      <c r="G150" s="1">
+        <v>91</v>
+      </c>
+      <c r="H150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>165</v>
+      </c>
+      <c r="D151">
+        <v>1115235</v>
+      </c>
+      <c r="E151" s="1">
+        <v>7898215151760</v>
+      </c>
+      <c r="F151" s="2">
+        <v>17</v>
+      </c>
+      <c r="G151" s="1">
+        <v>23</v>
+      </c>
+      <c r="H151" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152">
+        <v>19446</v>
+      </c>
+      <c r="E152" s="1">
+        <v>7898692300309</v>
+      </c>
+      <c r="F152" s="2">
+        <v>12</v>
+      </c>
+      <c r="G152" s="1">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+      <c r="D153">
+        <v>37228</v>
+      </c>
+      <c r="E153" s="1">
+        <v>7891079013984</v>
+      </c>
+      <c r="F153" s="2">
+        <v>34</v>
+      </c>
+      <c r="G153" s="1">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>168</v>
+      </c>
+      <c r="D154">
+        <v>702323</v>
+      </c>
+      <c r="E154" s="1">
+        <v>7891079000243</v>
+      </c>
+      <c r="F154" s="2">
+        <v>18</v>
+      </c>
+      <c r="G154" s="1">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>169</v>
+      </c>
+      <c r="D155">
+        <v>26625</v>
+      </c>
+      <c r="E155" s="1">
+        <v>7891079013854</v>
+      </c>
+      <c r="F155" s="2">
+        <v>23</v>
+      </c>
+      <c r="G155" s="1">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>170</v>
+      </c>
+      <c r="D156">
+        <v>26626</v>
+      </c>
+      <c r="E156" s="1">
+        <v>7891079013861</v>
+      </c>
+      <c r="F156" s="2">
+        <v>23</v>
+      </c>
+      <c r="G156" s="1">
+        <v>24</v>
+      </c>
+      <c r="H156" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157">
+        <v>1278363</v>
+      </c>
+      <c r="E157" s="1">
+        <v>7896038306190</v>
+      </c>
+      <c r="F157" s="2">
+        <v>28</v>
+      </c>
+      <c r="G157" s="1">
+        <v>26</v>
+      </c>
+      <c r="H157" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>172</v>
+      </c>
+      <c r="D158">
+        <v>35459</v>
+      </c>
+      <c r="E158" s="1">
+        <v>7730430004509</v>
+      </c>
+      <c r="F158" s="2">
+        <v>12</v>
+      </c>
+      <c r="G158" s="1">
+        <v>208</v>
+      </c>
+      <c r="H158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159">
+        <v>34753</v>
+      </c>
+      <c r="E159" s="1">
+        <v>7898701760483</v>
+      </c>
+      <c r="F159" s="2">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G159" s="1">
+        <v>44</v>
+      </c>
+      <c r="H159" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160">
+        <v>1127896</v>
+      </c>
+      <c r="E160" s="1">
+        <v>7892300002425</v>
+      </c>
+      <c r="F160" s="2">
+        <v>15</v>
+      </c>
+      <c r="G160" s="1">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161">
+        <v>697850</v>
+      </c>
+      <c r="E161" s="1">
+        <v>7896036090626</v>
+      </c>
+      <c r="F161" s="2">
+        <v>12</v>
+      </c>
+      <c r="G161" s="1">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162">
+        <v>699330</v>
+      </c>
+      <c r="E162" s="1">
+        <v>7892300030060</v>
+      </c>
+      <c r="F162" s="2">
+        <v>19</v>
+      </c>
+      <c r="G162" s="1">
+        <v>21</v>
+      </c>
+      <c r="H162" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>177</v>
+      </c>
+      <c r="D163">
+        <v>1060554</v>
+      </c>
+      <c r="E163" s="1">
+        <v>7891095154067</v>
+      </c>
+      <c r="F163" s="2">
+        <v>24</v>
+      </c>
+      <c r="G163" s="1">
+        <v>251</v>
+      </c>
+      <c r="H163" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164">
+        <v>1254502</v>
+      </c>
+      <c r="E164" s="1">
+        <v>7898959802348</v>
+      </c>
+      <c r="F164" s="2">
+        <v>17</v>
+      </c>
+      <c r="G164" s="1">
+        <v>21</v>
+      </c>
+      <c r="H164" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165">
+        <v>1403028</v>
+      </c>
+      <c r="E165" s="1">
+        <v>7898679521000</v>
+      </c>
+      <c r="F165" s="2">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1">
+        <v>34</v>
+      </c>
+      <c r="H165" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>180</v>
+      </c>
+      <c r="D166">
+        <v>33608</v>
+      </c>
+      <c r="E166" s="1">
+        <v>7891167831667</v>
+      </c>
+      <c r="F166" s="2">
+        <v>19</v>
+      </c>
+      <c r="G166" s="1">
+        <v>32</v>
+      </c>
+      <c r="H166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>181</v>
+      </c>
+      <c r="D167">
+        <v>15810</v>
+      </c>
+      <c r="E167" s="1">
+        <v>7891095154012</v>
+      </c>
+      <c r="F167" s="2">
+        <v>23</v>
+      </c>
+      <c r="G167" s="1">
+        <v>36</v>
+      </c>
+      <c r="H167" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>182</v>
+      </c>
+      <c r="D168">
+        <v>1088360</v>
+      </c>
+      <c r="E168" s="1">
+        <v>7896006791096</v>
+      </c>
+      <c r="F168" s="2">
+        <v>20</v>
+      </c>
+      <c r="G168" s="1">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169">
+        <v>847402</v>
+      </c>
+      <c r="E169" s="1">
+        <v>7892300001688</v>
+      </c>
+      <c r="F169" s="2">
+        <v>19</v>
+      </c>
+      <c r="G169" s="1">
+        <v>19</v>
+      </c>
+      <c r="H169" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>184</v>
+      </c>
+      <c r="D170">
+        <v>847429</v>
+      </c>
+      <c r="E170" s="1">
+        <v>7892300001671</v>
+      </c>
+      <c r="F170" s="2">
+        <v>13</v>
+      </c>
+      <c r="G170" s="1">
+        <v>28</v>
+      </c>
+      <c r="H170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>185</v>
+      </c>
+      <c r="D171">
+        <v>36940</v>
+      </c>
+      <c r="E171" s="1">
+        <v>7896259425465</v>
+      </c>
+      <c r="F171" s="2">
+        <v>91</v>
+      </c>
+      <c r="G171" s="1">
+        <v>34</v>
+      </c>
+      <c r="H171" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>186</v>
+      </c>
+      <c r="D172">
+        <v>1391720</v>
+      </c>
+      <c r="E172" s="1">
+        <v>7896034680126</v>
+      </c>
+      <c r="F172" s="2">
+        <v>20</v>
+      </c>
+      <c r="G172" s="1">
+        <v>78</v>
+      </c>
+      <c r="H172" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>187</v>
+      </c>
+      <c r="D173">
+        <v>1254391</v>
+      </c>
+      <c r="E173" s="1">
+        <v>7898959802188</v>
+      </c>
+      <c r="F173" s="2">
+        <v>28</v>
+      </c>
+      <c r="G173" s="1">
+        <v>54</v>
+      </c>
+      <c r="H173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>188</v>
+      </c>
+      <c r="D174">
+        <v>1172980</v>
+      </c>
+      <c r="E174" s="1">
+        <v>7899567218231</v>
+      </c>
+      <c r="F174" s="2">
+        <v>15</v>
+      </c>
+      <c r="G174" s="1">
+        <v>35</v>
+      </c>
+      <c r="H174" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>189</v>
+      </c>
+      <c r="D175">
+        <v>700436</v>
+      </c>
+      <c r="E175" s="1">
+        <v>7896031232083</v>
+      </c>
+      <c r="F175" s="2">
+        <v>22</v>
+      </c>
+      <c r="G175" s="1">
+        <v>31</v>
+      </c>
+      <c r="H175" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>190</v>
+      </c>
+      <c r="D176">
+        <v>1429778</v>
+      </c>
+      <c r="E176" s="1">
+        <v>7891167021105</v>
+      </c>
+      <c r="F176" s="2">
+        <v>36</v>
+      </c>
+      <c r="G176" s="1">
+        <v>19</v>
+      </c>
+      <c r="H176" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177">
+        <v>10262</v>
+      </c>
+      <c r="E177" s="1">
+        <v>7898679521604</v>
+      </c>
+      <c r="F177" s="2">
+        <v>13</v>
+      </c>
+      <c r="G177" s="1">
+        <v>25</v>
+      </c>
+      <c r="H177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>192</v>
+      </c>
+      <c r="D178">
+        <v>10580</v>
+      </c>
+      <c r="E178" s="1">
+        <v>7893590207316</v>
+      </c>
+      <c r="F178" s="2">
+        <v>15</v>
+      </c>
+      <c r="G178" s="1">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>193</v>
+      </c>
+      <c r="D179">
+        <v>1253832</v>
+      </c>
+      <c r="E179" s="1">
+        <v>7898959802317</v>
+      </c>
+      <c r="F179" s="2">
+        <v>12</v>
+      </c>
+      <c r="G179" s="1">
+        <v>86</v>
+      </c>
+      <c r="H179" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>194</v>
+      </c>
+      <c r="D180">
+        <v>723622</v>
+      </c>
+      <c r="E180" s="1">
+        <v>7891132019045</v>
+      </c>
+      <c r="F180" s="2">
+        <v>12</v>
+      </c>
+      <c r="G180" s="1">
+        <v>88</v>
+      </c>
+      <c r="H180" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>195</v>
+      </c>
+      <c r="D181">
+        <v>1078216</v>
+      </c>
+      <c r="E181" s="1">
+        <v>7898368351291</v>
+      </c>
+      <c r="F181" s="2">
+        <v>12</v>
+      </c>
+      <c r="G181" s="1">
+        <v>100</v>
+      </c>
+      <c r="H181" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>196</v>
+      </c>
+      <c r="D182">
+        <v>1311557</v>
+      </c>
+      <c r="E182" s="1">
+        <v>7896490290907</v>
+      </c>
+      <c r="F182" s="2">
+        <v>20</v>
+      </c>
+      <c r="G182" s="1">
+        <v>42</v>
+      </c>
+      <c r="H182" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>197</v>
+      </c>
+      <c r="D183">
+        <v>14457</v>
+      </c>
+      <c r="E183" s="1">
+        <v>7891132083060</v>
+      </c>
+      <c r="F183" s="2">
+        <v>48</v>
+      </c>
+      <c r="G183" s="1">
+        <v>91</v>
+      </c>
+      <c r="H183" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>198</v>
+      </c>
+      <c r="D184">
+        <v>37877</v>
+      </c>
+      <c r="E184" s="1">
+        <v>7908622700670</v>
+      </c>
+      <c r="F184" s="2">
+        <v>21</v>
+      </c>
+      <c r="G184" s="1">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>199</v>
+      </c>
+      <c r="D185">
+        <v>1032097</v>
+      </c>
+      <c r="E185" s="1">
+        <v>7506195183373</v>
+      </c>
+      <c r="F185" s="2">
+        <v>12</v>
+      </c>
+      <c r="G185" s="1">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>201</v>
+      </c>
+      <c r="D186">
+        <v>1362062</v>
+      </c>
+      <c r="E186" s="1">
+        <v>7896104994023</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45</v>
+      </c>
+      <c r="G186" s="1">
+        <v>42</v>
+      </c>
+      <c r="H186" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D187">
+        <v>1362011</v>
+      </c>
+      <c r="E187" s="1">
+        <v>7896104994047</v>
+      </c>
+      <c r="F187" s="2">
+        <v>27</v>
+      </c>
+      <c r="G187" s="1">
+        <v>30</v>
+      </c>
+      <c r="H187" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D188">
+        <v>1362020</v>
+      </c>
+      <c r="E188" s="1">
+        <v>7896104994054</v>
+      </c>
+      <c r="F188" s="2">
+        <v>54</v>
+      </c>
+      <c r="G188" s="1">
+        <v>51</v>
+      </c>
+      <c r="H188" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189">
+        <v>1337173</v>
+      </c>
+      <c r="E189" s="1">
+        <v>7896104993965</v>
+      </c>
+      <c r="F189" s="2">
+        <v>12</v>
+      </c>
+      <c r="G189" s="1">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>205</v>
+      </c>
+      <c r="D190">
+        <v>36005</v>
+      </c>
+      <c r="E190" s="1">
+        <v>7896104991763</v>
+      </c>
+      <c r="F190" s="2">
+        <v>12</v>
+      </c>
+      <c r="G190" s="1">
+        <v>54</v>
+      </c>
+      <c r="H190" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>206</v>
+      </c>
+      <c r="D191">
+        <v>1362089</v>
+      </c>
+      <c r="E191" s="1">
+        <v>7896104995761</v>
+      </c>
+      <c r="F191" s="2">
+        <v>20</v>
+      </c>
+      <c r="G191" s="1">
+        <v>34</v>
+      </c>
+      <c r="H191" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>207</v>
+      </c>
+      <c r="D192">
+        <v>1395971</v>
+      </c>
+      <c r="E192" s="1">
+        <v>7500435132725</v>
+      </c>
+      <c r="F192" s="2">
+        <v>13</v>
+      </c>
+      <c r="G192" s="1">
+        <v>164</v>
+      </c>
+      <c r="H192" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>208</v>
+      </c>
+      <c r="D193">
+        <v>1395963</v>
+      </c>
+      <c r="E193" s="1">
+        <v>7500435132749</v>
+      </c>
+      <c r="F193" s="2">
+        <v>21</v>
+      </c>
+      <c r="G193" s="1">
+        <v>17</v>
+      </c>
+      <c r="H193" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>209</v>
+      </c>
+      <c r="D194">
+        <v>1389050</v>
+      </c>
+      <c r="E194" s="1">
+        <v>7500435132756</v>
+      </c>
+      <c r="F194" s="2">
+        <v>26</v>
+      </c>
+      <c r="G194" s="1">
+        <v>39</v>
+      </c>
+      <c r="H194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>210</v>
+      </c>
+      <c r="D195">
+        <v>36287</v>
+      </c>
+      <c r="E195" s="1">
+        <v>7500435145244</v>
+      </c>
+      <c r="F195" s="2">
+        <v>14</v>
+      </c>
+      <c r="G195" s="1">
+        <v>11</v>
+      </c>
+      <c r="H195" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D196">
+        <v>631264</v>
+      </c>
+      <c r="E196" s="1">
+        <v>7891010032906</v>
+      </c>
+      <c r="F196" s="2">
+        <v>23</v>
+      </c>
+      <c r="G196" s="1">
         <v>37</v>
       </c>
-      <c r="D34">
-        <v>35881</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7896013109310</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="H196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>212</v>
+      </c>
+      <c r="D197">
+        <v>23181</v>
+      </c>
+      <c r="E197" s="1">
+        <v>7509546679075</v>
+      </c>
+      <c r="F197" s="2">
+        <v>23</v>
+      </c>
+      <c r="G197" s="1">
+        <v>25</v>
+      </c>
+      <c r="H197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>213</v>
+      </c>
+      <c r="D198">
+        <v>31191</v>
+      </c>
+      <c r="E198" s="1">
+        <v>7896104992432</v>
+      </c>
+      <c r="F198" s="2">
+        <v>12</v>
+      </c>
+      <c r="G198" s="1">
+        <v>31</v>
+      </c>
+      <c r="H198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199">
+        <v>1388428</v>
+      </c>
+      <c r="E199" s="1">
+        <v>7891000115657</v>
+      </c>
+      <c r="F199" s="2">
+        <v>36</v>
+      </c>
+      <c r="G199" s="1">
+        <v>21</v>
+      </c>
+      <c r="H199" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>216</v>
+      </c>
+      <c r="D200">
+        <v>1388398</v>
+      </c>
+      <c r="E200" s="1">
+        <v>7891000115695</v>
+      </c>
+      <c r="F200" s="2">
+        <v>32</v>
+      </c>
+      <c r="G200" s="1">
+        <v>21</v>
+      </c>
+      <c r="H200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>217</v>
+      </c>
+      <c r="D201">
+        <v>20027</v>
+      </c>
+      <c r="E201" s="1">
+        <v>7891000350560</v>
+      </c>
+      <c r="F201" s="2">
+        <v>15</v>
+      </c>
+      <c r="G201" s="1">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>218</v>
+      </c>
+      <c r="D202">
+        <v>35808</v>
+      </c>
+      <c r="E202" s="1">
+        <v>7896048920577</v>
+      </c>
+      <c r="F202" s="2">
+        <v>21</v>
+      </c>
+      <c r="G202" s="1">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>219</v>
+      </c>
+      <c r="D203">
+        <v>35795</v>
+      </c>
+      <c r="E203" s="1">
+        <v>7896048920584</v>
+      </c>
+      <c r="F203" s="2">
+        <v>27</v>
+      </c>
+      <c r="G203" s="1">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>220</v>
+      </c>
+      <c r="D204">
+        <v>35800</v>
+      </c>
+      <c r="E204" s="1">
+        <v>7896048920713</v>
+      </c>
+      <c r="F204" s="2">
+        <v>18</v>
+      </c>
+      <c r="G204" s="1">
+        <v>204</v>
+      </c>
+      <c r="H204" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>221</v>
+      </c>
+      <c r="D205">
+        <v>35801</v>
+      </c>
+      <c r="E205" s="1">
+        <v>7896048920614</v>
+      </c>
+      <c r="F205" s="2">
+        <v>48</v>
+      </c>
+      <c r="G205" s="1">
+        <v>16</v>
+      </c>
+      <c r="H205" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>222</v>
+      </c>
+      <c r="D206">
+        <v>35804</v>
+      </c>
+      <c r="E206" s="1">
+        <v>7896048920621</v>
+      </c>
+      <c r="F206" s="2">
+        <v>18</v>
+      </c>
+      <c r="G206" s="1">
+        <v>228</v>
+      </c>
+      <c r="H206" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>223</v>
+      </c>
+      <c r="D207">
+        <v>35806</v>
+      </c>
+      <c r="E207" s="1">
+        <v>7896048920591</v>
+      </c>
+      <c r="F207" s="2">
+        <v>16</v>
+      </c>
+      <c r="G207" s="1">
+        <v>25</v>
+      </c>
+      <c r="H207" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>224</v>
+      </c>
+      <c r="D208">
+        <v>18929</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1892</v>
+      </c>
+      <c r="F208" s="2">
+        <v>30</v>
+      </c>
+      <c r="G208" s="1">
+        <v>299</v>
+      </c>
+      <c r="H208" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>225</v>
+      </c>
+      <c r="D209">
+        <v>35961</v>
+      </c>
+      <c r="E209" s="1">
+        <v>7896029045985</v>
+      </c>
+      <c r="F209" s="2">
+        <v>20</v>
+      </c>
+      <c r="G209" s="1">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>226</v>
+      </c>
+      <c r="D210">
+        <v>1199935</v>
+      </c>
+      <c r="E210" s="1">
+        <v>7896029014981</v>
+      </c>
+      <c r="F210" s="2">
+        <v>36</v>
+      </c>
+      <c r="G210" s="1">
+        <v>56</v>
+      </c>
+      <c r="H210" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>227</v>
+      </c>
+      <c r="D211">
+        <v>878278</v>
+      </c>
+      <c r="E211" s="1">
+        <v>7896029022276</v>
+      </c>
+      <c r="F211" s="2">
+        <v>94</v>
+      </c>
+      <c r="G211" s="1">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>228</v>
+      </c>
+      <c r="D212">
+        <v>851337</v>
+      </c>
+      <c r="E212" s="1">
+        <v>7898336441061</v>
+      </c>
+      <c r="F212" s="2">
+        <v>16</v>
+      </c>
+      <c r="G212" s="1">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>229</v>
+      </c>
+      <c r="D213">
+        <v>1432390</v>
+      </c>
+      <c r="E213" s="1">
+        <v>7898224824167</v>
+      </c>
+      <c r="F213" s="2">
+        <v>12</v>
+      </c>
+      <c r="G213" s="1">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>230</v>
+      </c>
+      <c r="D214">
+        <v>830011</v>
+      </c>
+      <c r="E214" s="1">
+        <v>7896029046562</v>
+      </c>
+      <c r="F214" s="2">
+        <v>20</v>
+      </c>
+      <c r="G214" s="1">
+        <v>18</v>
+      </c>
+      <c r="H214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>231</v>
+      </c>
+      <c r="D215">
+        <v>830054</v>
+      </c>
+      <c r="E215" s="1">
+        <v>7896029046173</v>
+      </c>
+      <c r="F215" s="2">
+        <v>29</v>
+      </c>
+      <c r="G215" s="1">
+        <v>26</v>
+      </c>
+      <c r="H215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>232</v>
+      </c>
+      <c r="D216">
+        <v>27818</v>
+      </c>
+      <c r="E216" s="1">
+        <v>7896029091906</v>
+      </c>
+      <c r="F216" s="2">
+        <v>12</v>
+      </c>
+      <c r="G216" s="1">
+        <v>29</v>
+      </c>
+      <c r="H216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>233</v>
+      </c>
+      <c r="D217">
+        <v>16725</v>
+      </c>
+      <c r="E217" s="1">
+        <v>7896029047316</v>
+      </c>
+      <c r="F217" s="2">
+        <v>23</v>
+      </c>
+      <c r="G217" s="1">
+        <v>29</v>
+      </c>
+      <c r="H217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>234</v>
+      </c>
+      <c r="D218">
+        <v>34784</v>
+      </c>
+      <c r="E218" s="1">
+        <v>7899069400066</v>
+      </c>
+      <c r="F218" s="2">
+        <v>13</v>
+      </c>
+      <c r="G218" s="1">
         <v>49</v>
       </c>
-      <c r="G34" s="3">
-        <v>21</v>
-      </c>
-      <c r="H34" t="s">
-        <v>34</v>
+      <c r="H218" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BCB6B7-71BE-4228-980B-AD0B40C1B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F0D6D-E338-49AC-84AB-8639146FD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="183">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -567,6 +567,24 @@
   </si>
   <si>
     <t>RACAO WHISKAS FRANGO KG</t>
+  </si>
+  <si>
+    <t>LIMPEZA</t>
+  </si>
+  <si>
+    <t>MERCEARIA DOCE</t>
+  </si>
+  <si>
+    <t>MERCEARIA SALGADA</t>
+  </si>
+  <si>
+    <t>PERFUMARIA</t>
+  </si>
+  <si>
+    <t>PERFUMARIA INFANTIL</t>
+  </si>
+  <si>
+    <t>PETSHOP</t>
   </si>
 </sst>
 </file>
@@ -991,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1085,9 @@
       <c r="G2" s="3">
         <v>55</v>
       </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1093,6 +1114,9 @@
       <c r="G3" s="3">
         <v>15</v>
       </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1119,6 +1143,9 @@
       <c r="G4" s="3">
         <v>32</v>
       </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1145,6 +1172,9 @@
       <c r="G5" s="3">
         <v>16</v>
       </c>
+      <c r="H5" t="s">
+        <v>177</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1171,6 +1201,9 @@
       <c r="G6" s="3">
         <v>43</v>
       </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -1197,6 +1230,9 @@
       <c r="G7" s="3">
         <v>14</v>
       </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1223,6 +1259,9 @@
       <c r="G8" s="3">
         <v>67</v>
       </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1249,6 +1288,9 @@
       <c r="G9" s="3">
         <v>15</v>
       </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -1275,6 +1317,9 @@
       <c r="G10" s="3">
         <v>25</v>
       </c>
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1301,6 +1346,9 @@
       <c r="G11" s="3">
         <v>22</v>
       </c>
+      <c r="H11" t="s">
+        <v>177</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -1327,6 +1375,9 @@
       <c r="G12" s="3">
         <v>17</v>
       </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -1353,6 +1404,9 @@
       <c r="G13" s="3">
         <v>33</v>
       </c>
+      <c r="H13" t="s">
+        <v>177</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -1379,6 +1433,9 @@
       <c r="G14" s="3">
         <v>154</v>
       </c>
+      <c r="H14" t="s">
+        <v>177</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -1405,6 +1462,9 @@
       <c r="G15" s="3">
         <v>18</v>
       </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -1431,6 +1491,9 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -1457,6 +1520,9 @@
       <c r="G17" s="3">
         <v>83</v>
       </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -1483,6 +1549,9 @@
       <c r="G18" s="3">
         <v>16</v>
       </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -1509,6 +1578,9 @@
       <c r="G19" s="3">
         <v>16</v>
       </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -1535,6 +1607,9 @@
       <c r="G20" s="3">
         <v>88</v>
       </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -1561,6 +1636,9 @@
       <c r="G21" s="3">
         <v>29</v>
       </c>
+      <c r="H21" t="s">
+        <v>177</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -1587,6 +1665,9 @@
       <c r="G22" s="3">
         <v>36</v>
       </c>
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -1613,6 +1694,9 @@
       <c r="G23" s="3">
         <v>15</v>
       </c>
+      <c r="H23" t="s">
+        <v>177</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -1639,6 +1723,9 @@
       <c r="G24" s="3">
         <v>43</v>
       </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -1665,6 +1752,9 @@
       <c r="G25" s="3">
         <v>77</v>
       </c>
+      <c r="H25" t="s">
+        <v>177</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -1691,6 +1781,9 @@
       <c r="G26" s="3">
         <v>24</v>
       </c>
+      <c r="H26" t="s">
+        <v>177</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1717,6 +1810,9 @@
       <c r="G27" s="3">
         <v>20</v>
       </c>
+      <c r="H27" t="s">
+        <v>177</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -1743,6 +1839,9 @@
       <c r="G28" s="3">
         <v>22</v>
       </c>
+      <c r="H28" t="s">
+        <v>178</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -1769,6 +1868,9 @@
       <c r="G29" s="3">
         <v>25</v>
       </c>
+      <c r="H29" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1792,6 +1894,9 @@
       <c r="G30" s="3">
         <v>17</v>
       </c>
+      <c r="H30" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1815,6 +1920,9 @@
       <c r="G31" s="3">
         <v>23</v>
       </c>
+      <c r="H31" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1838,8 +1946,11 @@
       <c r="G32" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1861,8 +1972,11 @@
       <c r="G33" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1884,8 +1998,11 @@
       <c r="G34" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1907,8 +2024,11 @@
       <c r="G35" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1930,8 +2050,11 @@
       <c r="G36" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1953,8 +2076,11 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1976,8 +2102,11 @@
       <c r="G38" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2128,11 @@
       <c r="G39" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2022,8 +2154,11 @@
       <c r="G40" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2045,8 +2180,11 @@
       <c r="G41" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2068,8 +2206,11 @@
       <c r="G42" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2091,8 +2232,11 @@
       <c r="G43" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2114,8 +2258,11 @@
       <c r="G44" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2137,8 +2284,11 @@
       <c r="G45" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2310,11 @@
       <c r="G46" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2183,8 +2336,11 @@
       <c r="G47" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2206,8 +2362,11 @@
       <c r="G48" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2229,8 +2388,11 @@
       <c r="G49" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2252,8 +2414,11 @@
       <c r="G50" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2275,8 +2440,11 @@
       <c r="G51" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -2298,8 +2466,11 @@
       <c r="G52" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -2321,8 +2492,11 @@
       <c r="G53" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2344,8 +2518,11 @@
       <c r="G54" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -2367,8 +2544,11 @@
       <c r="G55" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -2390,8 +2570,11 @@
       <c r="G56" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -2413,8 +2596,11 @@
       <c r="G57" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2436,8 +2622,11 @@
       <c r="G58" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -2459,8 +2648,11 @@
       <c r="G59" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2482,8 +2674,11 @@
       <c r="G60" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2505,8 +2700,11 @@
       <c r="G61" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2528,8 +2726,11 @@
       <c r="G62" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -2551,8 +2752,11 @@
       <c r="G63" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2574,8 +2778,11 @@
       <c r="G64" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2597,8 +2804,11 @@
       <c r="G65" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -2620,8 +2830,11 @@
       <c r="G66" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -2643,8 +2856,11 @@
       <c r="G67" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -2666,8 +2882,11 @@
       <c r="G68" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -2689,8 +2908,11 @@
       <c r="G69" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -2712,8 +2934,11 @@
       <c r="G70" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -2735,8 +2960,11 @@
       <c r="G71" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -2758,8 +2986,11 @@
       <c r="G72" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -2781,8 +3012,11 @@
       <c r="G73" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -2804,8 +3038,11 @@
       <c r="G74" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -2827,8 +3064,11 @@
       <c r="G75" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -2850,8 +3090,11 @@
       <c r="G76" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -2873,8 +3116,11 @@
       <c r="G77" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2896,8 +3142,11 @@
       <c r="G78" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -2919,8 +3168,11 @@
       <c r="G79" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -2942,8 +3194,11 @@
       <c r="G80" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2965,8 +3220,11 @@
       <c r="G81" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -2988,8 +3246,11 @@
       <c r="G82" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -3011,8 +3272,11 @@
       <c r="G83" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -3034,8 +3298,11 @@
       <c r="G84" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -3057,8 +3324,11 @@
       <c r="G85" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -3080,8 +3350,11 @@
       <c r="G86" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -3103,8 +3376,11 @@
       <c r="G87" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -3126,8 +3402,11 @@
       <c r="G88" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -3149,8 +3428,11 @@
       <c r="G89" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -3172,8 +3454,11 @@
       <c r="G90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -3195,8 +3480,11 @@
       <c r="G91" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -3218,8 +3506,11 @@
       <c r="G92" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -3241,8 +3532,11 @@
       <c r="G93" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -3264,8 +3558,11 @@
       <c r="G94" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -3287,8 +3584,11 @@
       <c r="G95" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -3310,8 +3610,11 @@
       <c r="G96" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -3333,8 +3636,11 @@
       <c r="G97" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -3356,8 +3662,11 @@
       <c r="G98" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -3379,8 +3688,11 @@
       <c r="G99" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -3402,8 +3714,11 @@
       <c r="G100" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -3425,8 +3740,11 @@
       <c r="G101" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -3448,8 +3766,11 @@
       <c r="G102" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -3471,8 +3792,11 @@
       <c r="G103" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3494,8 +3818,11 @@
       <c r="G104" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -3517,8 +3844,11 @@
       <c r="G105" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -3540,8 +3870,11 @@
       <c r="G106" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -3563,8 +3896,11 @@
       <c r="G107" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -3586,8 +3922,11 @@
       <c r="G108" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -3609,8 +3948,11 @@
       <c r="G109" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -3632,8 +3974,11 @@
       <c r="G110" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -3655,8 +4000,11 @@
       <c r="G111" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -3678,8 +4026,11 @@
       <c r="G112" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -3701,8 +4052,11 @@
       <c r="G113" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -3724,8 +4078,11 @@
       <c r="G114" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -3747,8 +4104,11 @@
       <c r="G115" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3770,8 +4130,11 @@
       <c r="G116" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3793,8 +4156,11 @@
       <c r="G117" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -3816,8 +4182,11 @@
       <c r="G118" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -3839,8 +4208,11 @@
       <c r="G119" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -3862,8 +4234,11 @@
       <c r="G120" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -3885,8 +4260,11 @@
       <c r="G121" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -3908,8 +4286,11 @@
       <c r="G122" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -3931,8 +4312,11 @@
       <c r="G123" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -3954,8 +4338,11 @@
       <c r="G124" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -3977,8 +4364,11 @@
       <c r="G125" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -4000,8 +4390,11 @@
       <c r="G126" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -4023,8 +4416,11 @@
       <c r="G127" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -4046,8 +4442,11 @@
       <c r="G128" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -4069,8 +4468,11 @@
       <c r="G129" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -4092,8 +4494,11 @@
       <c r="G130" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -4115,8 +4520,11 @@
       <c r="G131" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -4138,8 +4546,11 @@
       <c r="G132" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -4161,8 +4572,11 @@
       <c r="G133" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -4184,8 +4598,11 @@
       <c r="G134" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -4207,8 +4624,11 @@
       <c r="G135" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>22</v>
       </c>
@@ -4230,8 +4650,11 @@
       <c r="G136" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -4253,8 +4676,11 @@
       <c r="G137" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -4276,8 +4702,11 @@
       <c r="G138" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -4299,8 +4728,11 @@
       <c r="G139" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -4322,8 +4754,11 @@
       <c r="G140" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -4345,8 +4780,11 @@
       <c r="G141" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -4368,8 +4806,11 @@
       <c r="G142" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -4391,8 +4832,11 @@
       <c r="G143" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -4414,8 +4858,11 @@
       <c r="G144" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -4437,8 +4884,11 @@
       <c r="G145" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -4460,8 +4910,11 @@
       <c r="G146" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -4483,8 +4936,11 @@
       <c r="G147" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -4506,8 +4962,11 @@
       <c r="G148" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -4529,8 +4988,11 @@
       <c r="G149" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -4552,8 +5014,11 @@
       <c r="G150" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -4575,8 +5040,11 @@
       <c r="G151" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -4598,8 +5066,11 @@
       <c r="G152" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -4621,8 +5092,11 @@
       <c r="G153" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -4644,8 +5118,11 @@
       <c r="G154" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -4667,8 +5144,11 @@
       <c r="G155" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -4690,8 +5170,11 @@
       <c r="G156" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -4713,8 +5196,11 @@
       <c r="G157" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -4736,8 +5222,11 @@
       <c r="G158" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -4759,8 +5248,11 @@
       <c r="G159" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -4782,8 +5274,11 @@
       <c r="G160" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -4805,8 +5300,11 @@
       <c r="G161" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -4828,8 +5326,11 @@
       <c r="G162" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -4851,8 +5352,11 @@
       <c r="G163" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -4874,8 +5378,11 @@
       <c r="G164" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -4897,8 +5404,11 @@
       <c r="G165" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -4920,8 +5430,11 @@
       <c r="G166" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -4942,6 +5455,9 @@
       </c>
       <c r="G167" s="1">
         <v>17</v>
+      </c>
+      <c r="H167" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F362F17-1399-4265-A215-83576A536AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6B8A3-0D54-4198-9D13-04763D184832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="248">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -123,186 +123,6 @@
   </si>
   <si>
     <t>PRODUTOS SEM VENDA PAN 29/05</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/06</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/07</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/08</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/09</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/10</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/11</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/12</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/13</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/14</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/15</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/16</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/17</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/18</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/19</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/20</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/21</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/22</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/23</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/24</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/25</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/26</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/27</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/28</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/29</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/30</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/31</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/32</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/33</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/34</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/35</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/36</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/37</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/38</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/39</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/40</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/41</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/42</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/43</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/44</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/45</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/46</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/47</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/48</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/49</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/50</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/51</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/52</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/53</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/54</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/55</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/56</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/57</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/58</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/59</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/60</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/61</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/62</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/63</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/64</t>
-  </si>
-  <si>
-    <t>PRODUTOS SEM VENDA PAN 29/65</t>
   </si>
   <si>
     <t>BROCOLIS FLORETE DAUCY CONG.300G</t>
@@ -1384,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>37805</v>
@@ -1461,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2"/>
@@ -1475,7 +1295,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>37802</v>
@@ -1490,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3"/>
@@ -1504,7 +1324,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>37797</v>
@@ -1519,7 +1339,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4"/>
@@ -1533,7 +1353,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>37864</v>
@@ -1548,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5"/>
@@ -1562,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1356828</v>
@@ -1577,7 +1397,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6"/>
@@ -1591,7 +1411,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>37807</v>
@@ -1606,7 +1426,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7"/>
@@ -1620,7 +1440,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>33677</v>
@@ -1635,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8"/>
@@ -1649,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1356917</v>
@@ -1664,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9"/>
@@ -1678,7 +1498,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>36541</v>
@@ -1693,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10"/>
@@ -1707,7 +1527,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>722480</v>
@@ -1722,7 +1542,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11"/>
@@ -1736,7 +1556,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>31436</v>
@@ -1751,7 +1571,7 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12"/>
@@ -1765,7 +1585,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1110985</v>
@@ -1780,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13"/>
@@ -1794,7 +1614,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>18099</v>
@@ -1809,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14"/>
@@ -1823,7 +1643,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>16837</v>
@@ -1838,7 +1658,7 @@
         <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15"/>
@@ -1852,7 +1672,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>17485</v>
@@ -1867,7 +1687,7 @@
         <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16"/>
@@ -1881,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1430171</v>
@@ -1896,7 +1716,7 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17"/>
@@ -1910,7 +1730,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>15288</v>
@@ -1925,7 +1745,7 @@
         <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18"/>
@@ -1939,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>17558</v>
@@ -1954,7 +1774,7 @@
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19"/>
@@ -1968,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>24988</v>
@@ -1983,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20"/>
@@ -1997,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>878596</v>
@@ -2012,7 +1832,7 @@
         <v>567</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21"/>
@@ -2026,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>15229</v>
@@ -2041,7 +1861,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22"/>
@@ -2055,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>15468</v>
@@ -2070,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23"/>
@@ -2084,7 +1904,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>1356836</v>
@@ -2099,7 +1919,7 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24"/>
@@ -2113,7 +1933,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>1358987</v>
@@ -2128,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25"/>
@@ -2142,7 +1962,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>22098</v>
@@ -2157,7 +1977,7 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26"/>
@@ -2171,7 +1991,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>33065</v>
@@ -2186,7 +2006,7 @@
         <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27"/>
@@ -2200,7 +2020,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>34915</v>
@@ -2215,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28"/>
@@ -2229,7 +2049,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>1057456</v>
@@ -2244,7 +2064,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2255,7 +2075,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>1122452</v>
@@ -2270,7 +2090,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2281,7 +2101,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>11879</v>
@@ -2296,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2307,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>1055585</v>
@@ -2322,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2333,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>34725</v>
@@ -2348,7 +2168,7 @@
         <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2359,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>33729</v>
@@ -2374,7 +2194,7 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2385,7 +2205,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>1122398</v>
@@ -2400,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2411,7 +2231,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>1057502</v>
@@ -2426,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2437,7 +2257,7 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>1373030</v>
@@ -2452,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2463,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>1261754</v>
@@ -2478,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2489,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D39">
         <v>737267</v>
@@ -2504,7 +2324,7 @@
         <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2515,7 +2335,7 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>737658</v>
@@ -2530,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2541,7 +2361,7 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>33521</v>
@@ -2556,7 +2376,7 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,7 +2387,7 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>34722</v>
@@ -2582,7 +2402,7 @@
         <v>137</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2593,7 +2413,7 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>621498</v>
@@ -2619,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>30321</v>
@@ -2671,7 +2491,7 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D46">
         <v>21986</v>
@@ -2697,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="D47">
         <v>1145991</v>
@@ -2723,7 +2543,7 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D48">
         <v>14736</v>
@@ -2749,7 +2569,7 @@
         <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>622460</v>
@@ -2775,7 +2595,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>24903</v>
@@ -2801,7 +2621,7 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D51">
         <v>38069</v>
@@ -2827,7 +2647,7 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="D52">
         <v>38070</v>
@@ -2853,7 +2673,7 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="D53">
         <v>1429847</v>
@@ -2879,7 +2699,7 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>22744</v>
@@ -2905,7 +2725,7 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D55">
         <v>623300</v>
@@ -2931,7 +2751,7 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="D56">
         <v>623628</v>
@@ -2957,7 +2777,7 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="D57">
         <v>985090</v>
@@ -2983,7 +2803,7 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="D58">
         <v>16697</v>
@@ -3009,7 +2829,7 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="D59">
         <v>1309013</v>
@@ -3035,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D60">
         <v>28968</v>
@@ -3061,7 +2881,7 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>33292</v>
@@ -3087,7 +2907,7 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="D62">
         <v>26268</v>
@@ -3113,7 +2933,7 @@
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D63">
         <v>678724</v>
@@ -3139,7 +2959,7 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D64">
         <v>1363719</v>
@@ -3165,7 +2985,7 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D65">
         <v>20860</v>
@@ -3191,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="D66">
         <v>1303392</v>
@@ -3217,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="D67">
         <v>684449</v>
@@ -3243,7 +3063,7 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="D68">
         <v>684759</v>
@@ -3269,7 +3089,7 @@
         <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="D69">
         <v>685011</v>
@@ -3295,7 +3115,7 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D70">
         <v>1201239</v>
@@ -3321,7 +3141,7 @@
         <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D71">
         <v>37709</v>
@@ -3347,7 +3167,7 @@
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D72">
         <v>204374</v>
@@ -3373,7 +3193,7 @@
         <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="D73">
         <v>1429784</v>
@@ -3399,7 +3219,7 @@
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="D74">
         <v>1126709</v>
@@ -3425,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="D75">
         <v>875686</v>
@@ -3451,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D76">
         <v>1139037</v>
@@ -3477,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="D77">
         <v>1139029</v>
@@ -3503,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D78">
         <v>1034235</v>
@@ -3529,7 +3349,7 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D79">
         <v>37906</v>
@@ -3555,7 +3375,7 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D80">
         <v>35519</v>
@@ -3581,7 +3401,7 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="D81">
         <v>679976</v>
@@ -3607,7 +3427,7 @@
         <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="D82">
         <v>1211935</v>
@@ -3633,7 +3453,7 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D83">
         <v>940607</v>
@@ -3659,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="D84">
         <v>1352296</v>
@@ -3685,7 +3505,7 @@
         <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D85">
         <v>12926</v>
@@ -3711,7 +3531,7 @@
         <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="D86">
         <v>690732</v>
@@ -3737,7 +3557,7 @@
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="D87">
         <v>37016</v>
@@ -3763,7 +3583,7 @@
         <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D88">
         <v>686816</v>
@@ -3789,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="D89">
         <v>1431996</v>
@@ -3815,7 +3635,7 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D90">
         <v>706876</v>
@@ -3841,7 +3661,7 @@
         <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D91">
         <v>21745</v>
@@ -3867,7 +3687,7 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D92">
         <v>1218255</v>
@@ -3919,7 +3739,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="D94">
         <v>31967</v>
@@ -3945,7 +3765,7 @@
         <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="D95">
         <v>36124</v>
@@ -4049,7 +3869,7 @@
         <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="D99">
         <v>19673</v>
@@ -4075,7 +3895,7 @@
         <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="D100">
         <v>38156</v>
@@ -4101,7 +3921,7 @@
         <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="D101">
         <v>38157</v>
@@ -4127,7 +3947,7 @@
         <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="D102">
         <v>26722</v>
@@ -4153,7 +3973,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="D103">
         <v>1432597</v>
@@ -4179,7 +3999,7 @@
         <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="D104">
         <v>34572</v>
@@ -4205,7 +4025,7 @@
         <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="D105">
         <v>1250930</v>
@@ -4231,7 +4051,7 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="D106">
         <v>1250949</v>
@@ -4257,7 +4077,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D107">
         <v>34718</v>
@@ -4283,7 +4103,7 @@
         <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="D108">
         <v>735400</v>
@@ -4309,7 +4129,7 @@
         <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="D109">
         <v>1325329</v>
@@ -4335,7 +4155,7 @@
         <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D110">
         <v>1432312</v>
@@ -4361,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="D111">
         <v>30764</v>
@@ -4387,7 +4207,7 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="D112">
         <v>1222740</v>
@@ -4413,7 +4233,7 @@
         <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="D113">
         <v>37962</v>
@@ -4439,7 +4259,7 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="D114">
         <v>1129465</v>
@@ -4465,7 +4285,7 @@
         <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D115">
         <v>1299000</v>
@@ -4491,7 +4311,7 @@
         <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="D116">
         <v>15234</v>
@@ -4517,7 +4337,7 @@
         <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="D117">
         <v>30692</v>
@@ -4543,7 +4363,7 @@
         <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="D118">
         <v>23128</v>
@@ -4569,7 +4389,7 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="D119">
         <v>617784</v>
@@ -4595,7 +4415,7 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D120">
         <v>16841</v>
@@ -4621,7 +4441,7 @@
         <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="D121">
         <v>19888</v>
@@ -4647,7 +4467,7 @@
         <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="D122">
         <v>23029</v>
@@ -4673,7 +4493,7 @@
         <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="D123">
         <v>23032</v>
@@ -4699,7 +4519,7 @@
         <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="D124">
         <v>21423</v>
@@ -4725,7 +4545,7 @@
         <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="D125">
         <v>31093</v>
@@ -4751,7 +4571,7 @@
         <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="D126">
         <v>32765</v>
@@ -4777,7 +4597,7 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="D127">
         <v>1420720</v>
@@ -4829,7 +4649,7 @@
         <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="D129">
         <v>33398</v>
@@ -4855,7 +4675,7 @@
         <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="D130">
         <v>956678</v>
@@ -4881,7 +4701,7 @@
         <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D131">
         <v>20697</v>
@@ -4907,7 +4727,7 @@
         <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D132">
         <v>724700</v>
@@ -4933,7 +4753,7 @@
         <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="D133">
         <v>724602</v>
@@ -4959,7 +4779,7 @@
         <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D134">
         <v>725536</v>
@@ -4985,7 +4805,7 @@
         <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="D135">
         <v>1331523</v>
@@ -5011,7 +4831,7 @@
         <v>27</v>
       </c>
       <c r="C136" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="D136">
         <v>31204</v>
@@ -5037,7 +4857,7 @@
         <v>27</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="D137">
         <v>717207</v>
@@ -5063,7 +4883,7 @@
         <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="D138">
         <v>717231</v>
@@ -5089,7 +4909,7 @@
         <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="D139">
         <v>33799</v>
@@ -5115,7 +4935,7 @@
         <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D140">
         <v>19443</v>
@@ -5141,7 +4961,7 @@
         <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D141">
         <v>1371380</v>
@@ -5167,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="D142">
         <v>1351729</v>
@@ -5193,7 +5013,7 @@
         <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="D143">
         <v>1420879</v>
@@ -5219,7 +5039,7 @@
         <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="D144">
         <v>1428434</v>
@@ -5245,7 +5065,7 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="D145">
         <v>1205706</v>
@@ -5271,7 +5091,7 @@
         <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="D146">
         <v>35233</v>
@@ -5297,7 +5117,7 @@
         <v>27</v>
       </c>
       <c r="C147" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="D147">
         <v>848220</v>
@@ -5323,7 +5143,7 @@
         <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="D148">
         <v>1402986</v>
@@ -5349,7 +5169,7 @@
         <v>27</v>
       </c>
       <c r="C149" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D149">
         <v>34898</v>
@@ -5375,7 +5195,7 @@
         <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D150">
         <v>36153</v>
@@ -5401,7 +5221,7 @@
         <v>27</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="D151">
         <v>21212</v>
@@ -5427,7 +5247,7 @@
         <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="D152">
         <v>27964</v>
@@ -5453,7 +5273,7 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="D153">
         <v>720585</v>
@@ -5479,7 +5299,7 @@
         <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="D154">
         <v>37914</v>
@@ -5505,7 +5325,7 @@
         <v>27</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="D155">
         <v>1060554</v>
@@ -5531,7 +5351,7 @@
         <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D156">
         <v>33923</v>
@@ -5557,7 +5377,7 @@
         <v>27</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="D157">
         <v>847402</v>
@@ -5609,7 +5429,7 @@
         <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="D159">
         <v>697583</v>
@@ -5635,7 +5455,7 @@
         <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="D160">
         <v>1029304</v>
@@ -5661,7 +5481,7 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D161">
         <v>10580</v>
@@ -5687,7 +5507,7 @@
         <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="D162">
         <v>1253808</v>
@@ -5713,7 +5533,7 @@
         <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="D163">
         <v>1253948</v>
@@ -5739,7 +5559,7 @@
         <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D164">
         <v>700673</v>
@@ -5765,7 +5585,7 @@
         <v>27</v>
       </c>
       <c r="C165" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="D165">
         <v>1323989</v>
@@ -5780,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5791,7 +5611,7 @@
         <v>27</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="D166">
         <v>14861</v>
@@ -5806,7 +5626,7 @@
         <v>27</v>
       </c>
       <c r="H166" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5817,7 +5637,7 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="D167">
         <v>249289</v>
@@ -5832,18 +5652,18 @@
         <v>110</v>
       </c>
       <c r="H167" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B168" t="s">
         <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="D168">
         <v>17736</v>
@@ -5858,18 +5678,18 @@
         <v>90</v>
       </c>
       <c r="H168" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
         <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="D169">
         <v>34037</v>
@@ -5884,18 +5704,18 @@
         <v>103</v>
       </c>
       <c r="H169" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B170" t="s">
         <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="D170">
         <v>15933</v>
@@ -5910,18 +5730,18 @@
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B171" t="s">
         <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="D171">
         <v>37002</v>
@@ -5936,18 +5756,18 @@
         <v>25</v>
       </c>
       <c r="H171" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B172" t="s">
         <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="D172">
         <v>35247</v>
@@ -5967,13 +5787,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
         <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="D173">
         <v>1154257</v>
@@ -5993,13 +5813,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B174" t="s">
         <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D174">
         <v>10808</v>
@@ -6019,7 +5839,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B175" t="s">
         <v>27</v>
@@ -6045,13 +5865,13 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B176" t="s">
         <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="D176">
         <v>969494</v>
@@ -6071,13 +5891,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B177" t="s">
         <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D177">
         <v>1224204</v>
@@ -6097,13 +5917,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B178" t="s">
         <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="D178">
         <v>643327</v>
@@ -6123,13 +5943,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B179" t="s">
         <v>27</v>
       </c>
       <c r="C179" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="D179">
         <v>26168</v>
@@ -6149,13 +5969,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B180" t="s">
         <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="D180">
         <v>1291718</v>
@@ -6175,13 +5995,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B181" t="s">
         <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D181">
         <v>31404</v>
@@ -6201,13 +6021,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B182" t="s">
         <v>27</v>
       </c>
       <c r="C182" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="D182">
         <v>1031589</v>
@@ -6227,13 +6047,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B183" t="s">
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="D183">
         <v>669636</v>
@@ -6253,13 +6073,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B184" t="s">
         <v>27</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="D184">
         <v>20793</v>
@@ -6279,13 +6099,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B185" t="s">
         <v>27</v>
       </c>
       <c r="C185" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="D185">
         <v>676292</v>
@@ -6305,13 +6125,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D186">
         <v>38099</v>
@@ -6331,13 +6151,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B187" t="s">
         <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D187">
         <v>1186329</v>
@@ -6357,13 +6177,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B188" t="s">
         <v>27</v>
       </c>
       <c r="C188" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="D188">
         <v>651664</v>
@@ -6383,7 +6203,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B189" t="s">
         <v>27</v>
@@ -6409,13 +6229,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
       </c>
       <c r="C190" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="D190">
         <v>38102</v>
@@ -6435,13 +6255,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
       </c>
       <c r="C191" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="D191">
         <v>38103</v>
@@ -6461,13 +6281,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
       </c>
       <c r="C192" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D192">
         <v>1385046</v>
@@ -6487,13 +6307,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B193" t="s">
         <v>27</v>
       </c>
       <c r="C193" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="D193">
         <v>1178180</v>
@@ -6513,13 +6333,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
       </c>
       <c r="C194" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="D194">
         <v>26162</v>
@@ -6539,13 +6359,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B195" t="s">
         <v>27</v>
       </c>
       <c r="C195" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D195">
         <v>38108</v>
@@ -6565,13 +6385,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B196" t="s">
         <v>27</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="D196">
         <v>13688</v>
@@ -6591,13 +6411,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B197" t="s">
         <v>27</v>
       </c>
       <c r="C197" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D197">
         <v>631574</v>
@@ -6617,13 +6437,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
       </c>
       <c r="C198" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="D198">
         <v>29085</v>
@@ -6643,13 +6463,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="D199">
         <v>1042220</v>
@@ -6669,7 +6489,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -6695,13 +6515,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B201" t="s">
         <v>27</v>
       </c>
       <c r="C201" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="D201">
         <v>1337114</v>
@@ -6721,13 +6541,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B202" t="s">
         <v>27</v>
       </c>
       <c r="C202" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="D202">
         <v>1362119</v>
@@ -6747,13 +6567,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B203" t="s">
         <v>27</v>
       </c>
       <c r="C203" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="D203">
         <v>25331</v>
@@ -6773,13 +6593,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B204" t="s">
         <v>27</v>
       </c>
       <c r="C204" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="D204">
         <v>1389050</v>
@@ -6799,13 +6619,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B205" t="s">
         <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="D205">
         <v>1430130</v>
@@ -6825,13 +6645,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B206" t="s">
         <v>27</v>
       </c>
       <c r="C206" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="D206">
         <v>1430129</v>
@@ -6851,13 +6671,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B207" t="s">
         <v>27</v>
       </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="D207">
         <v>631140</v>
@@ -6877,13 +6697,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B208" t="s">
         <v>27</v>
       </c>
       <c r="C208" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="D208">
         <v>631205</v>
@@ -6903,13 +6723,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B209" t="s">
         <v>27</v>
       </c>
       <c r="C209" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D209">
         <v>920835</v>
@@ -6929,13 +6749,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B210" t="s">
         <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="D210">
         <v>1388363</v>
@@ -6955,7 +6775,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B211" t="s">
         <v>27</v>
@@ -6981,13 +6801,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B212" t="s">
         <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="D212">
         <v>1201433</v>
@@ -7007,13 +6827,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B213" t="s">
         <v>27</v>
       </c>
       <c r="C213" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="D213">
         <v>1430395</v>
@@ -7033,13 +6853,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B214" t="s">
         <v>27</v>
       </c>
       <c r="C214" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="D214">
         <v>23116</v>
@@ -7059,13 +6879,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B215" t="s">
         <v>27</v>
       </c>
       <c r="C215" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="D215">
         <v>1201417</v>
@@ -7085,13 +6905,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
       </c>
       <c r="C216" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="D216">
         <v>1201409</v>
@@ -7111,13 +6931,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B217" t="s">
         <v>27</v>
       </c>
       <c r="C217" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="D217">
         <v>1201425</v>
@@ -7137,13 +6957,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B218" t="s">
         <v>27</v>
       </c>
       <c r="C218" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="D218">
         <v>971529</v>
@@ -7163,13 +6983,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B219" t="s">
         <v>27</v>
       </c>
       <c r="C219" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="D219">
         <v>828718</v>
@@ -7189,13 +7009,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B220" t="s">
         <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D220">
         <v>27816</v>
@@ -7215,13 +7035,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B221" t="s">
         <v>27</v>
       </c>
       <c r="C221" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="D221">
         <v>830011</v>
@@ -7241,13 +7061,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B222" t="s">
         <v>27</v>
       </c>
       <c r="C222" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="D222">
         <v>1199870</v>
@@ -7267,13 +7087,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B223" t="s">
         <v>27</v>
       </c>
       <c r="C223" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="D223">
         <v>830100</v>
@@ -7293,13 +7113,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B224" t="s">
         <v>27</v>
       </c>
       <c r="C224" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="D224">
         <v>830062</v>
@@ -7319,13 +7139,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B225" t="s">
         <v>27</v>
       </c>
       <c r="C225" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="D225">
         <v>829862</v>
@@ -7345,13 +7165,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B226" t="s">
         <v>27</v>
       </c>
       <c r="C226" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="D226">
         <v>19129</v>
@@ -7371,13 +7191,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B227" t="s">
         <v>27</v>
       </c>
       <c r="C227" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="D227">
         <v>38130</v>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65DB4B-0095-42AA-8850-3F748E820740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916174B4-8947-4248-866D-D91A5D815E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="897">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -2718,6 +2718,15 @@
   </si>
   <si>
     <t>PRODUTOS SEM VENDA MPE 1 03/06</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>TESTE 1</t>
+  </si>
+  <si>
+    <t>TESTE 2</t>
   </si>
 </sst>
 </file>
@@ -2805,8 +2814,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J940" totalsRowShown="0">
-  <autoFilter ref="A1:J940" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J942" totalsRowShown="0">
+  <autoFilter ref="A1:J942" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{0510A766-F1B9-4FC4-BE13-7F7C1B2E2101}" name="PESQUISA"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="LOJA"/>
@@ -3140,10 +3149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
-  <dimension ref="A1:L940"/>
+  <dimension ref="A1:L942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A918" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A582" sqref="A582:A940"/>
+    <sheetView tabSelected="1" topLeftCell="A924" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C943" sqref="C943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27691,6 +27700,58 @@
         <v>18</v>
       </c>
     </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>894</v>
+      </c>
+      <c r="B941" t="s">
+        <v>894</v>
+      </c>
+      <c r="C941" t="s">
+        <v>895</v>
+      </c>
+      <c r="D941" t="s">
+        <v>894</v>
+      </c>
+      <c r="E941" t="s">
+        <v>894</v>
+      </c>
+      <c r="F941" t="s">
+        <v>894</v>
+      </c>
+      <c r="G941" t="s">
+        <v>894</v>
+      </c>
+      <c r="H941" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>894</v>
+      </c>
+      <c r="B942" t="s">
+        <v>894</v>
+      </c>
+      <c r="C942" t="s">
+        <v>896</v>
+      </c>
+      <c r="D942" t="s">
+        <v>894</v>
+      </c>
+      <c r="E942" t="s">
+        <v>894</v>
+      </c>
+      <c r="F942" t="s">
+        <v>894</v>
+      </c>
+      <c r="G942" t="s">
+        <v>894</v>
+      </c>
+      <c r="H942" t="s">
+        <v>894</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916174B4-8947-4248-866D-D91A5D815E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DA346-3166-48F2-944F-26F4133AF0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="940">
   <si>
     <t>SEÇÃO</t>
   </si>
@@ -2727,6 +2727,135 @@
   </si>
   <si>
     <t>TESTE 2</t>
+  </si>
+  <si>
+    <t>TESTE 3</t>
+  </si>
+  <si>
+    <t>TESTE 4</t>
+  </si>
+  <si>
+    <t>TESTE 5</t>
+  </si>
+  <si>
+    <t>TESTE 6</t>
+  </si>
+  <si>
+    <t>TESTE 7</t>
+  </si>
+  <si>
+    <t>TESTE 8</t>
+  </si>
+  <si>
+    <t>TESTE 9</t>
+  </si>
+  <si>
+    <t>TESTE 10</t>
+  </si>
+  <si>
+    <t>TESTE 11</t>
+  </si>
+  <si>
+    <t>TESTE 12</t>
+  </si>
+  <si>
+    <t>TESTE 13</t>
+  </si>
+  <si>
+    <t>TESTE 14</t>
+  </si>
+  <si>
+    <t>TESTE 15</t>
+  </si>
+  <si>
+    <t>TESTE 16</t>
+  </si>
+  <si>
+    <t>TESTE 17</t>
+  </si>
+  <si>
+    <t>TESTE 18</t>
+  </si>
+  <si>
+    <t>TESTE 19</t>
+  </si>
+  <si>
+    <t>TESTE 20</t>
+  </si>
+  <si>
+    <t>TESTE 21</t>
+  </si>
+  <si>
+    <t>TESTE 22</t>
+  </si>
+  <si>
+    <t>TESTE 23</t>
+  </si>
+  <si>
+    <t>TESTE 24</t>
+  </si>
+  <si>
+    <t>TESTE 25</t>
+  </si>
+  <si>
+    <t>TESTE 26</t>
+  </si>
+  <si>
+    <t>TESTE 27</t>
+  </si>
+  <si>
+    <t>TESTE 28</t>
+  </si>
+  <si>
+    <t>TESTE 29</t>
+  </si>
+  <si>
+    <t>TESTE 30</t>
+  </si>
+  <si>
+    <t>TESTE 31</t>
+  </si>
+  <si>
+    <t>TESTE 32</t>
+  </si>
+  <si>
+    <t>TESTE 33</t>
+  </si>
+  <si>
+    <t>TESTE 34</t>
+  </si>
+  <si>
+    <t>TESTE 35</t>
+  </si>
+  <si>
+    <t>TESTE 36</t>
+  </si>
+  <si>
+    <t>TESTE 37</t>
+  </si>
+  <si>
+    <t>TESTE 38</t>
+  </si>
+  <si>
+    <t>TESTE 39</t>
+  </si>
+  <si>
+    <t>TESTE 40</t>
+  </si>
+  <si>
+    <t>TESTE 41</t>
+  </si>
+  <si>
+    <t>TESTE 42</t>
+  </si>
+  <si>
+    <t>TESTE 43</t>
+  </si>
+  <si>
+    <t>TESTE 44</t>
+  </si>
+  <si>
+    <t>TESTE 45</t>
   </si>
 </sst>
 </file>
@@ -2814,8 +2943,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J942" totalsRowShown="0">
-  <autoFilter ref="A1:J942" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J985" totalsRowShown="0">
+  <autoFilter ref="A1:J985" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{0510A766-F1B9-4FC4-BE13-7F7C1B2E2101}" name="PESQUISA"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="LOJA"/>
@@ -3149,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
-  <dimension ref="A1:L942"/>
+  <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A924" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C943" sqref="C943"/>
+    <sheetView tabSelected="1" topLeftCell="A930" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E954" sqref="E954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27752,6 +27881,1124 @@
         <v>894</v>
       </c>
     </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>894</v>
+      </c>
+      <c r="B943" t="s">
+        <v>894</v>
+      </c>
+      <c r="C943" t="s">
+        <v>897</v>
+      </c>
+      <c r="D943" t="s">
+        <v>894</v>
+      </c>
+      <c r="E943" t="s">
+        <v>894</v>
+      </c>
+      <c r="F943" t="s">
+        <v>894</v>
+      </c>
+      <c r="G943" t="s">
+        <v>894</v>
+      </c>
+      <c r="H943" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>894</v>
+      </c>
+      <c r="B944" t="s">
+        <v>894</v>
+      </c>
+      <c r="C944" t="s">
+        <v>898</v>
+      </c>
+      <c r="D944" t="s">
+        <v>894</v>
+      </c>
+      <c r="E944" t="s">
+        <v>894</v>
+      </c>
+      <c r="F944" t="s">
+        <v>894</v>
+      </c>
+      <c r="G944" t="s">
+        <v>894</v>
+      </c>
+      <c r="H944" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>894</v>
+      </c>
+      <c r="B945" t="s">
+        <v>894</v>
+      </c>
+      <c r="C945" t="s">
+        <v>899</v>
+      </c>
+      <c r="D945" t="s">
+        <v>894</v>
+      </c>
+      <c r="E945" t="s">
+        <v>894</v>
+      </c>
+      <c r="F945" t="s">
+        <v>894</v>
+      </c>
+      <c r="G945" t="s">
+        <v>894</v>
+      </c>
+      <c r="H945" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>894</v>
+      </c>
+      <c r="B946" t="s">
+        <v>894</v>
+      </c>
+      <c r="C946" t="s">
+        <v>900</v>
+      </c>
+      <c r="D946" t="s">
+        <v>894</v>
+      </c>
+      <c r="E946" t="s">
+        <v>894</v>
+      </c>
+      <c r="F946" t="s">
+        <v>894</v>
+      </c>
+      <c r="G946" t="s">
+        <v>894</v>
+      </c>
+      <c r="H946" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>894</v>
+      </c>
+      <c r="B947" t="s">
+        <v>894</v>
+      </c>
+      <c r="C947" t="s">
+        <v>901</v>
+      </c>
+      <c r="D947" t="s">
+        <v>894</v>
+      </c>
+      <c r="E947" t="s">
+        <v>894</v>
+      </c>
+      <c r="F947" t="s">
+        <v>894</v>
+      </c>
+      <c r="G947" t="s">
+        <v>894</v>
+      </c>
+      <c r="H947" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>894</v>
+      </c>
+      <c r="B948" t="s">
+        <v>894</v>
+      </c>
+      <c r="C948" t="s">
+        <v>902</v>
+      </c>
+      <c r="D948" t="s">
+        <v>894</v>
+      </c>
+      <c r="E948" t="s">
+        <v>894</v>
+      </c>
+      <c r="F948" t="s">
+        <v>894</v>
+      </c>
+      <c r="G948" t="s">
+        <v>894</v>
+      </c>
+      <c r="H948" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>894</v>
+      </c>
+      <c r="B949" t="s">
+        <v>894</v>
+      </c>
+      <c r="C949" t="s">
+        <v>903</v>
+      </c>
+      <c r="D949" t="s">
+        <v>894</v>
+      </c>
+      <c r="E949" t="s">
+        <v>894</v>
+      </c>
+      <c r="F949" t="s">
+        <v>894</v>
+      </c>
+      <c r="G949" t="s">
+        <v>894</v>
+      </c>
+      <c r="H949" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>894</v>
+      </c>
+      <c r="B950" t="s">
+        <v>894</v>
+      </c>
+      <c r="C950" t="s">
+        <v>904</v>
+      </c>
+      <c r="D950" t="s">
+        <v>894</v>
+      </c>
+      <c r="E950" t="s">
+        <v>894</v>
+      </c>
+      <c r="F950" t="s">
+        <v>894</v>
+      </c>
+      <c r="G950" t="s">
+        <v>894</v>
+      </c>
+      <c r="H950" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>894</v>
+      </c>
+      <c r="B951" t="s">
+        <v>894</v>
+      </c>
+      <c r="C951" t="s">
+        <v>905</v>
+      </c>
+      <c r="D951" t="s">
+        <v>894</v>
+      </c>
+      <c r="E951" t="s">
+        <v>894</v>
+      </c>
+      <c r="F951" t="s">
+        <v>894</v>
+      </c>
+      <c r="G951" t="s">
+        <v>894</v>
+      </c>
+      <c r="H951" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>894</v>
+      </c>
+      <c r="B952" t="s">
+        <v>894</v>
+      </c>
+      <c r="C952" t="s">
+        <v>906</v>
+      </c>
+      <c r="D952" t="s">
+        <v>894</v>
+      </c>
+      <c r="E952" t="s">
+        <v>894</v>
+      </c>
+      <c r="F952" t="s">
+        <v>894</v>
+      </c>
+      <c r="G952" t="s">
+        <v>894</v>
+      </c>
+      <c r="H952" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>894</v>
+      </c>
+      <c r="B953" t="s">
+        <v>894</v>
+      </c>
+      <c r="C953" t="s">
+        <v>907</v>
+      </c>
+      <c r="D953" t="s">
+        <v>894</v>
+      </c>
+      <c r="E953" t="s">
+        <v>894</v>
+      </c>
+      <c r="F953" t="s">
+        <v>894</v>
+      </c>
+      <c r="G953" t="s">
+        <v>894</v>
+      </c>
+      <c r="H953" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>894</v>
+      </c>
+      <c r="B954" t="s">
+        <v>894</v>
+      </c>
+      <c r="C954" t="s">
+        <v>908</v>
+      </c>
+      <c r="D954" t="s">
+        <v>894</v>
+      </c>
+      <c r="E954" t="s">
+        <v>894</v>
+      </c>
+      <c r="F954" t="s">
+        <v>894</v>
+      </c>
+      <c r="G954" t="s">
+        <v>894</v>
+      </c>
+      <c r="H954" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>894</v>
+      </c>
+      <c r="B955" t="s">
+        <v>894</v>
+      </c>
+      <c r="C955" t="s">
+        <v>909</v>
+      </c>
+      <c r="D955" t="s">
+        <v>894</v>
+      </c>
+      <c r="E955" t="s">
+        <v>894</v>
+      </c>
+      <c r="F955" t="s">
+        <v>894</v>
+      </c>
+      <c r="G955" t="s">
+        <v>894</v>
+      </c>
+      <c r="H955" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>894</v>
+      </c>
+      <c r="B956" t="s">
+        <v>894</v>
+      </c>
+      <c r="C956" t="s">
+        <v>910</v>
+      </c>
+      <c r="D956" t="s">
+        <v>894</v>
+      </c>
+      <c r="E956" t="s">
+        <v>894</v>
+      </c>
+      <c r="F956" t="s">
+        <v>894</v>
+      </c>
+      <c r="G956" t="s">
+        <v>894</v>
+      </c>
+      <c r="H956" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>894</v>
+      </c>
+      <c r="B957" t="s">
+        <v>894</v>
+      </c>
+      <c r="C957" t="s">
+        <v>911</v>
+      </c>
+      <c r="D957" t="s">
+        <v>894</v>
+      </c>
+      <c r="E957" t="s">
+        <v>894</v>
+      </c>
+      <c r="F957" t="s">
+        <v>894</v>
+      </c>
+      <c r="G957" t="s">
+        <v>894</v>
+      </c>
+      <c r="H957" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>894</v>
+      </c>
+      <c r="B958" t="s">
+        <v>894</v>
+      </c>
+      <c r="C958" t="s">
+        <v>912</v>
+      </c>
+      <c r="D958" t="s">
+        <v>894</v>
+      </c>
+      <c r="E958" t="s">
+        <v>894</v>
+      </c>
+      <c r="F958" t="s">
+        <v>894</v>
+      </c>
+      <c r="G958" t="s">
+        <v>894</v>
+      </c>
+      <c r="H958" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>894</v>
+      </c>
+      <c r="B959" t="s">
+        <v>894</v>
+      </c>
+      <c r="C959" t="s">
+        <v>913</v>
+      </c>
+      <c r="D959" t="s">
+        <v>894</v>
+      </c>
+      <c r="E959" t="s">
+        <v>894</v>
+      </c>
+      <c r="F959" t="s">
+        <v>894</v>
+      </c>
+      <c r="G959" t="s">
+        <v>894</v>
+      </c>
+      <c r="H959" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>894</v>
+      </c>
+      <c r="B960" t="s">
+        <v>894</v>
+      </c>
+      <c r="C960" t="s">
+        <v>914</v>
+      </c>
+      <c r="D960" t="s">
+        <v>894</v>
+      </c>
+      <c r="E960" t="s">
+        <v>894</v>
+      </c>
+      <c r="F960" t="s">
+        <v>894</v>
+      </c>
+      <c r="G960" t="s">
+        <v>894</v>
+      </c>
+      <c r="H960" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>894</v>
+      </c>
+      <c r="B961" t="s">
+        <v>894</v>
+      </c>
+      <c r="C961" t="s">
+        <v>915</v>
+      </c>
+      <c r="D961" t="s">
+        <v>894</v>
+      </c>
+      <c r="E961" t="s">
+        <v>894</v>
+      </c>
+      <c r="F961" t="s">
+        <v>894</v>
+      </c>
+      <c r="G961" t="s">
+        <v>894</v>
+      </c>
+      <c r="H961" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>894</v>
+      </c>
+      <c r="B962" t="s">
+        <v>894</v>
+      </c>
+      <c r="C962" t="s">
+        <v>916</v>
+      </c>
+      <c r="D962" t="s">
+        <v>894</v>
+      </c>
+      <c r="E962" t="s">
+        <v>894</v>
+      </c>
+      <c r="F962" t="s">
+        <v>894</v>
+      </c>
+      <c r="G962" t="s">
+        <v>894</v>
+      </c>
+      <c r="H962" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>894</v>
+      </c>
+      <c r="B963" t="s">
+        <v>894</v>
+      </c>
+      <c r="C963" t="s">
+        <v>917</v>
+      </c>
+      <c r="D963" t="s">
+        <v>894</v>
+      </c>
+      <c r="E963" t="s">
+        <v>894</v>
+      </c>
+      <c r="F963" t="s">
+        <v>894</v>
+      </c>
+      <c r="G963" t="s">
+        <v>894</v>
+      </c>
+      <c r="H963" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>894</v>
+      </c>
+      <c r="B964" t="s">
+        <v>894</v>
+      </c>
+      <c r="C964" t="s">
+        <v>918</v>
+      </c>
+      <c r="D964" t="s">
+        <v>894</v>
+      </c>
+      <c r="E964" t="s">
+        <v>894</v>
+      </c>
+      <c r="F964" t="s">
+        <v>894</v>
+      </c>
+      <c r="G964" t="s">
+        <v>894</v>
+      </c>
+      <c r="H964" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>894</v>
+      </c>
+      <c r="B965" t="s">
+        <v>894</v>
+      </c>
+      <c r="C965" t="s">
+        <v>919</v>
+      </c>
+      <c r="D965" t="s">
+        <v>894</v>
+      </c>
+      <c r="E965" t="s">
+        <v>894</v>
+      </c>
+      <c r="F965" t="s">
+        <v>894</v>
+      </c>
+      <c r="G965" t="s">
+        <v>894</v>
+      </c>
+      <c r="H965" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>894</v>
+      </c>
+      <c r="B966" t="s">
+        <v>894</v>
+      </c>
+      <c r="C966" t="s">
+        <v>920</v>
+      </c>
+      <c r="D966" t="s">
+        <v>894</v>
+      </c>
+      <c r="E966" t="s">
+        <v>894</v>
+      </c>
+      <c r="F966" t="s">
+        <v>894</v>
+      </c>
+      <c r="G966" t="s">
+        <v>894</v>
+      </c>
+      <c r="H966" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>894</v>
+      </c>
+      <c r="B967" t="s">
+        <v>894</v>
+      </c>
+      <c r="C967" t="s">
+        <v>921</v>
+      </c>
+      <c r="D967" t="s">
+        <v>894</v>
+      </c>
+      <c r="E967" t="s">
+        <v>894</v>
+      </c>
+      <c r="F967" t="s">
+        <v>894</v>
+      </c>
+      <c r="G967" t="s">
+        <v>894</v>
+      </c>
+      <c r="H967" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>894</v>
+      </c>
+      <c r="B968" t="s">
+        <v>894</v>
+      </c>
+      <c r="C968" t="s">
+        <v>922</v>
+      </c>
+      <c r="D968" t="s">
+        <v>894</v>
+      </c>
+      <c r="E968" t="s">
+        <v>894</v>
+      </c>
+      <c r="F968" t="s">
+        <v>894</v>
+      </c>
+      <c r="G968" t="s">
+        <v>894</v>
+      </c>
+      <c r="H968" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>894</v>
+      </c>
+      <c r="B969" t="s">
+        <v>894</v>
+      </c>
+      <c r="C969" t="s">
+        <v>923</v>
+      </c>
+      <c r="D969" t="s">
+        <v>894</v>
+      </c>
+      <c r="E969" t="s">
+        <v>894</v>
+      </c>
+      <c r="F969" t="s">
+        <v>894</v>
+      </c>
+      <c r="G969" t="s">
+        <v>894</v>
+      </c>
+      <c r="H969" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>894</v>
+      </c>
+      <c r="B970" t="s">
+        <v>894</v>
+      </c>
+      <c r="C970" t="s">
+        <v>924</v>
+      </c>
+      <c r="D970" t="s">
+        <v>894</v>
+      </c>
+      <c r="E970" t="s">
+        <v>894</v>
+      </c>
+      <c r="F970" t="s">
+        <v>894</v>
+      </c>
+      <c r="G970" t="s">
+        <v>894</v>
+      </c>
+      <c r="H970" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>894</v>
+      </c>
+      <c r="B971" t="s">
+        <v>894</v>
+      </c>
+      <c r="C971" t="s">
+        <v>925</v>
+      </c>
+      <c r="D971" t="s">
+        <v>894</v>
+      </c>
+      <c r="E971" t="s">
+        <v>894</v>
+      </c>
+      <c r="F971" t="s">
+        <v>894</v>
+      </c>
+      <c r="G971" t="s">
+        <v>894</v>
+      </c>
+      <c r="H971" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>894</v>
+      </c>
+      <c r="B972" t="s">
+        <v>894</v>
+      </c>
+      <c r="C972" t="s">
+        <v>926</v>
+      </c>
+      <c r="D972" t="s">
+        <v>894</v>
+      </c>
+      <c r="E972" t="s">
+        <v>894</v>
+      </c>
+      <c r="F972" t="s">
+        <v>894</v>
+      </c>
+      <c r="G972" t="s">
+        <v>894</v>
+      </c>
+      <c r="H972" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>894</v>
+      </c>
+      <c r="B973" t="s">
+        <v>894</v>
+      </c>
+      <c r="C973" t="s">
+        <v>927</v>
+      </c>
+      <c r="D973" t="s">
+        <v>894</v>
+      </c>
+      <c r="E973" t="s">
+        <v>894</v>
+      </c>
+      <c r="F973" t="s">
+        <v>894</v>
+      </c>
+      <c r="G973" t="s">
+        <v>894</v>
+      </c>
+      <c r="H973" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>894</v>
+      </c>
+      <c r="B974" t="s">
+        <v>894</v>
+      </c>
+      <c r="C974" t="s">
+        <v>928</v>
+      </c>
+      <c r="D974" t="s">
+        <v>894</v>
+      </c>
+      <c r="E974" t="s">
+        <v>894</v>
+      </c>
+      <c r="F974" t="s">
+        <v>894</v>
+      </c>
+      <c r="G974" t="s">
+        <v>894</v>
+      </c>
+      <c r="H974" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>894</v>
+      </c>
+      <c r="B975" t="s">
+        <v>894</v>
+      </c>
+      <c r="C975" t="s">
+        <v>929</v>
+      </c>
+      <c r="D975" t="s">
+        <v>894</v>
+      </c>
+      <c r="E975" t="s">
+        <v>894</v>
+      </c>
+      <c r="F975" t="s">
+        <v>894</v>
+      </c>
+      <c r="G975" t="s">
+        <v>894</v>
+      </c>
+      <c r="H975" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>894</v>
+      </c>
+      <c r="B976" t="s">
+        <v>894</v>
+      </c>
+      <c r="C976" t="s">
+        <v>930</v>
+      </c>
+      <c r="D976" t="s">
+        <v>894</v>
+      </c>
+      <c r="E976" t="s">
+        <v>894</v>
+      </c>
+      <c r="F976" t="s">
+        <v>894</v>
+      </c>
+      <c r="G976" t="s">
+        <v>894</v>
+      </c>
+      <c r="H976" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>894</v>
+      </c>
+      <c r="B977" t="s">
+        <v>894</v>
+      </c>
+      <c r="C977" t="s">
+        <v>931</v>
+      </c>
+      <c r="D977" t="s">
+        <v>894</v>
+      </c>
+      <c r="E977" t="s">
+        <v>894</v>
+      </c>
+      <c r="F977" t="s">
+        <v>894</v>
+      </c>
+      <c r="G977" t="s">
+        <v>894</v>
+      </c>
+      <c r="H977" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>894</v>
+      </c>
+      <c r="B978" t="s">
+        <v>894</v>
+      </c>
+      <c r="C978" t="s">
+        <v>932</v>
+      </c>
+      <c r="D978" t="s">
+        <v>894</v>
+      </c>
+      <c r="E978" t="s">
+        <v>894</v>
+      </c>
+      <c r="F978" t="s">
+        <v>894</v>
+      </c>
+      <c r="G978" t="s">
+        <v>894</v>
+      </c>
+      <c r="H978" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>894</v>
+      </c>
+      <c r="B979" t="s">
+        <v>894</v>
+      </c>
+      <c r="C979" t="s">
+        <v>933</v>
+      </c>
+      <c r="D979" t="s">
+        <v>894</v>
+      </c>
+      <c r="E979" t="s">
+        <v>894</v>
+      </c>
+      <c r="F979" t="s">
+        <v>894</v>
+      </c>
+      <c r="G979" t="s">
+        <v>894</v>
+      </c>
+      <c r="H979" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>894</v>
+      </c>
+      <c r="B980" t="s">
+        <v>894</v>
+      </c>
+      <c r="C980" t="s">
+        <v>934</v>
+      </c>
+      <c r="D980" t="s">
+        <v>894</v>
+      </c>
+      <c r="E980" t="s">
+        <v>894</v>
+      </c>
+      <c r="F980" t="s">
+        <v>894</v>
+      </c>
+      <c r="G980" t="s">
+        <v>894</v>
+      </c>
+      <c r="H980" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>894</v>
+      </c>
+      <c r="B981" t="s">
+        <v>894</v>
+      </c>
+      <c r="C981" t="s">
+        <v>935</v>
+      </c>
+      <c r="D981" t="s">
+        <v>894</v>
+      </c>
+      <c r="E981" t="s">
+        <v>894</v>
+      </c>
+      <c r="F981" t="s">
+        <v>894</v>
+      </c>
+      <c r="G981" t="s">
+        <v>894</v>
+      </c>
+      <c r="H981" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>894</v>
+      </c>
+      <c r="B982" t="s">
+        <v>894</v>
+      </c>
+      <c r="C982" t="s">
+        <v>936</v>
+      </c>
+      <c r="D982" t="s">
+        <v>894</v>
+      </c>
+      <c r="E982" t="s">
+        <v>894</v>
+      </c>
+      <c r="F982" t="s">
+        <v>894</v>
+      </c>
+      <c r="G982" t="s">
+        <v>894</v>
+      </c>
+      <c r="H982" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>894</v>
+      </c>
+      <c r="B983" t="s">
+        <v>894</v>
+      </c>
+      <c r="C983" t="s">
+        <v>937</v>
+      </c>
+      <c r="D983" t="s">
+        <v>894</v>
+      </c>
+      <c r="E983" t="s">
+        <v>894</v>
+      </c>
+      <c r="F983" t="s">
+        <v>894</v>
+      </c>
+      <c r="G983" t="s">
+        <v>894</v>
+      </c>
+      <c r="H983" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>894</v>
+      </c>
+      <c r="B984" t="s">
+        <v>894</v>
+      </c>
+      <c r="C984" t="s">
+        <v>938</v>
+      </c>
+      <c r="D984" t="s">
+        <v>894</v>
+      </c>
+      <c r="E984" t="s">
+        <v>894</v>
+      </c>
+      <c r="F984" t="s">
+        <v>894</v>
+      </c>
+      <c r="G984" t="s">
+        <v>894</v>
+      </c>
+      <c r="H984" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>894</v>
+      </c>
+      <c r="B985" t="s">
+        <v>894</v>
+      </c>
+      <c r="C985" t="s">
+        <v>939</v>
+      </c>
+      <c r="D985" t="s">
+        <v>894</v>
+      </c>
+      <c r="E985" t="s">
+        <v>894</v>
+      </c>
+      <c r="F985" t="s">
+        <v>894</v>
+      </c>
+      <c r="G985" t="s">
+        <v>894</v>
+      </c>
+      <c r="H985" t="s">
+        <v>894</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Feedback_Localizacao.xlsx
+++ b/Feedback_Localizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.lucio\Desktop\localizacao-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056024F-B765-46AF-B2C3-9E57F3044F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24314E24-E56C-4AE1-BC06-3E400F8C25A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{465510BC-D290-4320-95D4-F9D384AF176B}"/>
   </bookViews>
@@ -4876,7 +4876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F512-DBD9-4CCD-97A3-ACB65F137278}">
   <dimension ref="A1:L1696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1658" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1556" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C1682" sqref="C1682"/>
     </sheetView>
   </sheetViews>
